--- a/JupyterNotebooks/AvgHW/GossF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -680,22 +632,22 @@
         <v>0.9999346472413927</v>
       </c>
       <c r="E3">
-        <v>1.000016338583803</v>
+        <v>0.9999346472413927</v>
       </c>
       <c r="F3">
         <v>1.000016338583803</v>
       </c>
       <c r="G3">
-        <v>1.000043567992868</v>
+        <v>1.000016338583803</v>
       </c>
       <c r="H3">
         <v>0.999964057581783</v>
       </c>
       <c r="I3">
+        <v>1.000043567992867</v>
+      </c>
+      <c r="J3">
         <v>1.000016338583803</v>
-      </c>
-      <c r="J3">
-        <v>0.9999346472413927</v>
       </c>
       <c r="K3">
         <v>1.000016338583803</v>
@@ -728,7 +680,7 @@
         <v>0.9999985480945752</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -742,22 +694,22 @@
         <v>0.9998738372178897</v>
       </c>
       <c r="E4">
-        <v>1.000031540050173</v>
+        <v>0.9998738372178897</v>
       </c>
       <c r="F4">
         <v>1.000031540050173</v>
       </c>
       <c r="G4">
+        <v>1.000031540050173</v>
+      </c>
+      <c r="H4">
+        <v>0.9999306129898526</v>
+      </c>
+      <c r="I4">
         <v>1.000084107857689</v>
       </c>
-      <c r="H4">
-        <v>0.9999306129898524</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.000031540050173</v>
-      </c>
-      <c r="J4">
-        <v>0.9998738372178897</v>
       </c>
       <c r="K4">
         <v>1.000031540050173</v>
@@ -772,7 +724,7 @@
         <v>0.9999526886340313</v>
       </c>
       <c r="O4">
-        <v>0.9999453300859716</v>
+        <v>0.9999453300859718</v>
       </c>
       <c r="P4">
         <v>0.9999789724394118</v>
@@ -790,7 +742,7 @@
         <v>0.9999971963693252</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -804,22 +756,22 @@
         <v>0.9997582243656344</v>
       </c>
       <c r="E5">
-        <v>1.000060438927275</v>
+        <v>0.9997582243656344</v>
       </c>
       <c r="F5">
         <v>1.000060438927275</v>
       </c>
       <c r="G5">
-        <v>1.000161185399341</v>
+        <v>1.000060438927275</v>
       </c>
       <c r="H5">
         <v>0.9998670286552583</v>
       </c>
       <c r="I5">
+        <v>1.000161185399341</v>
+      </c>
+      <c r="J5">
         <v>1.000060438927275</v>
-      </c>
-      <c r="J5">
-        <v>0.9997582243656344</v>
       </c>
       <c r="K5">
         <v>1.000060438927275</v>
@@ -852,7 +804,7 @@
         <v>0.9999946258670095</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -866,22 +818,22 @@
         <v>0.9996453958735342</v>
       </c>
       <c r="E6">
-        <v>1.000088647805852</v>
+        <v>0.9996453958735342</v>
       </c>
       <c r="F6">
         <v>1.000088647805852</v>
       </c>
       <c r="G6">
-        <v>1.000236399566401</v>
+        <v>1.000088647805852</v>
       </c>
       <c r="H6">
         <v>0.9998049685953444</v>
       </c>
       <c r="I6">
+        <v>1.000236399566401</v>
+      </c>
+      <c r="J6">
         <v>1.000088647805852</v>
-      </c>
-      <c r="J6">
-        <v>0.9996453958735342</v>
       </c>
       <c r="K6">
         <v>1.000088647805852</v>
@@ -914,7 +866,7 @@
         <v>0.9999921179088059</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -928,22 +880,22 @@
         <v>0.9999980594444019</v>
       </c>
       <c r="E7">
-        <v>1.000000486165669</v>
+        <v>0.9999980594444019</v>
       </c>
       <c r="F7">
         <v>1.000000486165669</v>
       </c>
       <c r="G7">
-        <v>1.000001292768302</v>
+        <v>1.000000486165669</v>
       </c>
       <c r="H7">
         <v>0.9999989341772036</v>
       </c>
       <c r="I7">
+        <v>1.000001292768302</v>
+      </c>
+      <c r="J7">
         <v>1.000000486165669</v>
-      </c>
-      <c r="J7">
-        <v>0.9999980594444019</v>
       </c>
       <c r="K7">
         <v>1.000000486165669</v>
@@ -952,31 +904,31 @@
         <v>1.000000486165669</v>
       </c>
       <c r="M7">
-        <v>0.9999992728050355</v>
+        <v>0.9999992728050358</v>
       </c>
       <c r="N7">
-        <v>0.9999992728050355</v>
+        <v>0.9999992728050358</v>
       </c>
       <c r="O7">
-        <v>0.9999991599290916</v>
+        <v>0.9999991599290917</v>
       </c>
       <c r="P7">
-        <v>0.9999996772585801</v>
+        <v>0.9999996772585803</v>
       </c>
       <c r="Q7">
-        <v>0.9999996772585801</v>
+        <v>0.9999996772585803</v>
       </c>
       <c r="R7">
-        <v>0.9999998794853524</v>
+        <v>0.9999998794853526</v>
       </c>
       <c r="S7">
-        <v>0.9999998794853524</v>
+        <v>0.9999998794853526</v>
       </c>
       <c r="T7">
-        <v>0.9999999574811524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999999574811526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -987,25 +939,25 @@
         <v>1.000000183625916</v>
       </c>
       <c r="D8">
-        <v>0.9999992693106468</v>
+        <v>0.9999992693106465</v>
       </c>
       <c r="E8">
-        <v>1.000000183625916</v>
+        <v>0.9999992693106465</v>
       </c>
       <c r="F8">
         <v>1.000000183625916</v>
       </c>
       <c r="G8">
-        <v>1.000000486009434</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="H8">
         <v>0.999999599493442</v>
       </c>
       <c r="I8">
+        <v>1.000000486009434</v>
+      </c>
+      <c r="J8">
         <v>1.000000183625916</v>
-      </c>
-      <c r="J8">
-        <v>0.9999992693106468</v>
       </c>
       <c r="K8">
         <v>1.000000183625916</v>
@@ -1023,22 +975,22 @@
         <v>0.9999996841433348</v>
       </c>
       <c r="P8">
-        <v>0.9999998788541594</v>
+        <v>0.9999998788541595</v>
       </c>
       <c r="Q8">
-        <v>0.9999998788541594</v>
+        <v>0.9999998788541595</v>
       </c>
       <c r="R8">
-        <v>0.9999999550470985</v>
+        <v>0.9999999550470986</v>
       </c>
       <c r="S8">
-        <v>0.9999999550470985</v>
+        <v>0.9999999550470986</v>
       </c>
       <c r="T8">
         <v>0.9999999842818784</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1052,22 +1004,22 @@
         <v>1.00000665505566</v>
       </c>
       <c r="E9">
-        <v>0.9999983370882055</v>
+        <v>1.00000665505566</v>
       </c>
       <c r="F9">
         <v>0.9999983370882055</v>
       </c>
       <c r="G9">
-        <v>0.9999955621507089</v>
+        <v>0.9999983370882055</v>
       </c>
       <c r="H9">
         <v>1.000003661595367</v>
       </c>
       <c r="I9">
+        <v>0.9999955621507092</v>
+      </c>
+      <c r="J9">
         <v>0.9999983370882055</v>
-      </c>
-      <c r="J9">
-        <v>1.00000665505566</v>
       </c>
       <c r="K9">
         <v>0.9999983370882055</v>
@@ -1100,7 +1052,7 @@
         <v>1.000000148344392</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1114,22 +1066,22 @@
         <v>1.000007393278709</v>
       </c>
       <c r="E10">
-        <v>0.9999981533096574</v>
+        <v>1.000007393278709</v>
       </c>
       <c r="F10">
         <v>0.9999981533096574</v>
       </c>
       <c r="G10">
-        <v>0.9999950707193996</v>
+        <v>0.9999981533096574</v>
       </c>
       <c r="H10">
         <v>1.000004068484211</v>
       </c>
       <c r="I10">
+        <v>0.9999950707193996</v>
+      </c>
+      <c r="J10">
         <v>0.9999981533096574</v>
-      </c>
-      <c r="J10">
-        <v>1.000007393278709</v>
       </c>
       <c r="K10">
         <v>0.9999981533096574</v>
@@ -1162,7 +1114,7 @@
         <v>1.000000165401882</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,34 +1122,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999925601641226</v>
+        <v>0.9999925601641224</v>
       </c>
       <c r="D11">
         <v>1.000029761041818</v>
       </c>
       <c r="E11">
-        <v>0.9999925601641226</v>
+        <v>1.000029761041818</v>
       </c>
       <c r="F11">
-        <v>0.9999925601641226</v>
+        <v>0.9999925601641224</v>
       </c>
       <c r="G11">
-        <v>0.9999801582747998</v>
+        <v>0.9999925601641224</v>
       </c>
       <c r="H11">
         <v>1.000016371160507</v>
       </c>
       <c r="I11">
-        <v>0.9999925601641226</v>
+        <v>0.9999801582747998</v>
       </c>
       <c r="J11">
-        <v>1.000029761041818</v>
+        <v>0.9999925601641224</v>
       </c>
       <c r="K11">
-        <v>0.9999925601641226</v>
+        <v>0.9999925601641224</v>
       </c>
       <c r="L11">
-        <v>0.9999925601641226</v>
+        <v>0.9999925601641224</v>
       </c>
       <c r="M11">
         <v>1.00001116060297</v>
@@ -1215,16 +1167,16 @@
         <v>1.000004960456688</v>
       </c>
       <c r="R11">
-        <v>1.000001860383547</v>
+        <v>1.000001860383546</v>
       </c>
       <c r="S11">
-        <v>1.000001860383547</v>
+        <v>1.000001860383546</v>
       </c>
       <c r="T11">
-        <v>1.000000661828249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.000000661828248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1235,25 +1187,25 @@
         <v>1.000028097300705</v>
       </c>
       <c r="D12">
-        <v>0.9998876122407556</v>
+        <v>0.9998876122407557</v>
       </c>
       <c r="E12">
-        <v>1.000028097300705</v>
+        <v>0.9998876122407557</v>
       </c>
       <c r="F12">
         <v>1.000028097300705</v>
       </c>
       <c r="G12">
-        <v>1.000074918695383</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="H12">
         <v>0.9999381882324063</v>
       </c>
       <c r="I12">
+        <v>1.000074918695383</v>
+      </c>
+      <c r="J12">
         <v>1.000028097300705</v>
-      </c>
-      <c r="J12">
-        <v>0.9998876122407556</v>
       </c>
       <c r="K12">
         <v>1.000028097300705</v>
@@ -1286,7 +1238,7 @@
         <v>0.9999975018451103</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1300,22 +1252,22 @@
         <v>0.9999695108552538</v>
       </c>
       <c r="E13">
-        <v>1.000007626290974</v>
+        <v>0.9999695108552538</v>
       </c>
       <c r="F13">
         <v>1.000007626290974</v>
       </c>
       <c r="G13">
-        <v>1.000020322947069</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="H13">
         <v>0.9999832304387672</v>
       </c>
       <c r="I13">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="J13">
         <v>1.000007626290974</v>
-      </c>
-      <c r="J13">
-        <v>0.9999695108552538</v>
       </c>
       <c r="K13">
         <v>1.000007626290974</v>
@@ -1324,31 +1276,31 @@
         <v>1.000007626290974</v>
       </c>
       <c r="M13">
-        <v>0.9999885685731137</v>
+        <v>0.9999885685731138</v>
       </c>
       <c r="N13">
-        <v>0.9999885685731137</v>
+        <v>0.9999885685731138</v>
       </c>
       <c r="O13">
-        <v>0.9999867891949982</v>
+        <v>0.9999867891949984</v>
       </c>
       <c r="P13">
-        <v>0.9999949211457336</v>
+        <v>0.9999949211457339</v>
       </c>
       <c r="Q13">
-        <v>0.9999949211457336</v>
+        <v>0.9999949211457339</v>
       </c>
       <c r="R13">
-        <v>0.9999980974320437</v>
+        <v>0.9999980974320438</v>
       </c>
       <c r="S13">
-        <v>0.9999980974320437</v>
+        <v>0.9999980974320438</v>
       </c>
       <c r="T13">
-        <v>0.999999323852335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9999993238523351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1362,22 +1314,22 @@
         <v>1.010692306143848</v>
       </c>
       <c r="E14">
-        <v>0.9973269266129244</v>
+        <v>1.010692306143848</v>
       </c>
       <c r="F14">
         <v>0.9973269266129244</v>
       </c>
       <c r="G14">
-        <v>0.9928718018038819</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="H14">
         <v>1.005880777237486</v>
       </c>
       <c r="I14">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="J14">
         <v>0.9973269266129244</v>
-      </c>
-      <c r="J14">
-        <v>1.010692306143848</v>
       </c>
       <c r="K14">
         <v>0.9973269266129244</v>
@@ -1410,7 +1362,7 @@
         <v>1.000237610837331</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1424,22 +1376,22 @@
         <v>1.00284988332352</v>
       </c>
       <c r="E15">
-        <v>0.9992875286153806</v>
+        <v>1.00284988332352</v>
       </c>
       <c r="F15">
         <v>0.9992875286153806</v>
       </c>
       <c r="G15">
-        <v>0.9981000766135258</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="H15">
         <v>1.001567436407662</v>
       </c>
       <c r="I15">
+        <v>0.9981000766135258</v>
+      </c>
+      <c r="J15">
         <v>0.9992875286153806</v>
-      </c>
-      <c r="J15">
-        <v>1.00284988332352</v>
       </c>
       <c r="K15">
         <v>0.9992875286153806</v>
@@ -1472,7 +1424,7 @@
         <v>1.000063330365142</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000068692146</v>
+        <v>1.000318270451064</v>
       </c>
       <c r="D16">
-        <v>0.9999997290498686</v>
+        <v>0.9987268898949458</v>
       </c>
       <c r="E16">
-        <v>1.000000068692146</v>
+        <v>0.9987268898949458</v>
       </c>
       <c r="F16">
-        <v>1.000000068692146</v>
+        <v>1.000318270451064</v>
       </c>
       <c r="G16">
-        <v>1.000000179893585</v>
+        <v>1.000318270451064</v>
       </c>
       <c r="H16">
-        <v>0.9999998524162285</v>
+        <v>0.9992997933641357</v>
       </c>
       <c r="I16">
-        <v>1.000000068692146</v>
+        <v>1.000848740562993</v>
       </c>
       <c r="J16">
-        <v>0.9999997290498686</v>
+        <v>1.000318270451064</v>
       </c>
       <c r="K16">
-        <v>1.000000068692146</v>
+        <v>1.000318270451064</v>
       </c>
       <c r="L16">
-        <v>1.000000068692146</v>
+        <v>1.000318270451064</v>
       </c>
       <c r="M16">
-        <v>0.9999998988710074</v>
+        <v>0.999522580173005</v>
       </c>
       <c r="N16">
-        <v>0.9999998988710074</v>
+        <v>0.999522580173005</v>
       </c>
       <c r="O16">
-        <v>0.999999883386081</v>
+        <v>0.999448317903382</v>
       </c>
       <c r="P16">
-        <v>0.9999999554780535</v>
+        <v>0.9997878102656914</v>
       </c>
       <c r="Q16">
-        <v>0.9999999554780535</v>
+        <v>0.9997878102656914</v>
       </c>
       <c r="R16">
-        <v>0.9999999837815767</v>
+        <v>0.9999204253120346</v>
       </c>
       <c r="S16">
-        <v>0.9999999837815767</v>
+        <v>0.9999204253120346</v>
       </c>
       <c r="T16">
-        <v>0.9999999945726867</v>
+        <v>0.9999717058625445</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000001430164178</v>
+        <v>1.000259128756796</v>
       </c>
       <c r="D17">
-        <v>0.9999942836438702</v>
+        <v>0.998963466652855</v>
       </c>
       <c r="E17">
-        <v>1.000001430164178</v>
+        <v>0.998963466652855</v>
       </c>
       <c r="F17">
-        <v>1.000001430164178</v>
+        <v>1.000259128756796</v>
       </c>
       <c r="G17">
-        <v>1.000003810149395</v>
+        <v>1.000259128756796</v>
       </c>
       <c r="H17">
-        <v>0.9999968572775617</v>
+        <v>0.9994299098057376</v>
       </c>
       <c r="I17">
-        <v>1.000001430164178</v>
+        <v>1.000691022201087</v>
       </c>
       <c r="J17">
-        <v>0.9999942836438702</v>
+        <v>1.000259128756796</v>
       </c>
       <c r="K17">
-        <v>1.000001430164178</v>
+        <v>1.000259128756796</v>
       </c>
       <c r="L17">
-        <v>1.000001430164178</v>
+        <v>1.000259128756796</v>
       </c>
       <c r="M17">
-        <v>0.9999978569040242</v>
+        <v>0.9996112977048257</v>
       </c>
       <c r="N17">
-        <v>0.9999978569040242</v>
+        <v>0.9996112977048257</v>
       </c>
       <c r="O17">
-        <v>0.9999975236952033</v>
+        <v>0.9995508350717963</v>
       </c>
       <c r="P17">
-        <v>0.9999990479907422</v>
+        <v>0.999827241388816</v>
       </c>
       <c r="Q17">
-        <v>0.9999990479907422</v>
+        <v>0.999827241388816</v>
       </c>
       <c r="R17">
-        <v>0.9999996435341012</v>
+        <v>0.999935213230811</v>
       </c>
       <c r="S17">
-        <v>0.9999996435341012</v>
+        <v>0.999935213230811</v>
       </c>
       <c r="T17">
-        <v>0.9999998735938936</v>
+        <v>0.9999769641550112</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000005031290864</v>
+        <v>1.000137693002349</v>
       </c>
       <c r="D18">
-        <v>0.9999798779190787</v>
+        <v>0.9994492277827457</v>
       </c>
       <c r="E18">
-        <v>1.000005031290864</v>
+        <v>0.9994492277827457</v>
       </c>
       <c r="F18">
-        <v>1.000005031290864</v>
+        <v>1.000137693002349</v>
       </c>
       <c r="G18">
-        <v>1.000013417029376</v>
+        <v>1.000137693002349</v>
       </c>
       <c r="H18">
-        <v>0.9999889312744372</v>
+        <v>0.9996970772591905</v>
       </c>
       <c r="I18">
-        <v>1.000005031290864</v>
+        <v>1.000367182294833</v>
       </c>
       <c r="J18">
-        <v>0.9999798779190787</v>
+        <v>1.000137693002349</v>
       </c>
       <c r="K18">
-        <v>1.000005031290864</v>
+        <v>1.000137693002349</v>
       </c>
       <c r="L18">
-        <v>1.000005031290864</v>
+        <v>1.000137693002349</v>
       </c>
       <c r="M18">
-        <v>0.9999924546049714</v>
+        <v>0.9997934603925471</v>
       </c>
       <c r="N18">
-        <v>0.9999924546049714</v>
+        <v>0.9997934603925471</v>
       </c>
       <c r="O18">
-        <v>0.99999128016146</v>
+        <v>0.9997613326814282</v>
       </c>
       <c r="P18">
-        <v>0.9999966468336025</v>
+        <v>0.9999082045958142</v>
       </c>
       <c r="Q18">
-        <v>0.9999966468336025</v>
+        <v>0.9999082045958142</v>
       </c>
       <c r="R18">
-        <v>0.9999987429479178</v>
+        <v>0.9999655766974478</v>
       </c>
       <c r="S18">
-        <v>0.9999987429479178</v>
+        <v>0.9999655766974478</v>
       </c>
       <c r="T18">
-        <v>0.9999995533492475</v>
+        <v>0.9999877610573025</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="D19">
+        <v>0.9993668731649471</v>
+      </c>
+      <c r="E19">
+        <v>0.9993668731649471</v>
+      </c>
+      <c r="F19">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="G19">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="H19">
+        <v>0.9996517812912679</v>
+      </c>
+      <c r="I19">
+        <v>1.000422086367302</v>
+      </c>
+      <c r="J19">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="K19">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="L19">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="M19">
+        <v>0.9997625766375871</v>
+      </c>
+      <c r="N19">
+        <v>0.9997625766375871</v>
+      </c>
+      <c r="O19">
+        <v>0.9997256448554807</v>
+      </c>
+      <c r="P19">
+        <v>0.9998944777951339</v>
+      </c>
+      <c r="Q19">
+        <v>0.9998944777951339</v>
+      </c>
+      <c r="R19">
+        <v>0.9999604283739072</v>
+      </c>
+      <c r="S19">
+        <v>0.9999604283739072</v>
+      </c>
+      <c r="T19">
+        <v>0.9999859301923665</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="D20">
+        <v>0.9999997290498686</v>
+      </c>
+      <c r="E20">
+        <v>0.9999997290498686</v>
+      </c>
+      <c r="F20">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="G20">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="H20">
+        <v>0.9999998524162285</v>
+      </c>
+      <c r="I20">
+        <v>1.000000179893585</v>
+      </c>
+      <c r="J20">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="K20">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="L20">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="M20">
+        <v>0.9999998988710074</v>
+      </c>
+      <c r="N20">
+        <v>0.9999998988710074</v>
+      </c>
+      <c r="O20">
+        <v>0.999999883386081</v>
+      </c>
+      <c r="P20">
+        <v>0.9999999554780535</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999999554780535</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999837815767</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999837815767</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999945726867</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="D21">
+        <v>0.9999942836438702</v>
+      </c>
+      <c r="E21">
+        <v>0.9999942836438702</v>
+      </c>
+      <c r="F21">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="G21">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="H21">
+        <v>0.9999968572775617</v>
+      </c>
+      <c r="I21">
+        <v>1.000003810149395</v>
+      </c>
+      <c r="J21">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="K21">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="L21">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="M21">
+        <v>0.9999978569040242</v>
+      </c>
+      <c r="N21">
+        <v>0.9999978569040242</v>
+      </c>
+      <c r="O21">
+        <v>0.9999975236952033</v>
+      </c>
+      <c r="P21">
+        <v>0.9999990479907422</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999990479907422</v>
+      </c>
+      <c r="R21">
+        <v>0.9999996435341012</v>
+      </c>
+      <c r="S21">
+        <v>0.9999996435341012</v>
+      </c>
+      <c r="T21">
+        <v>0.9999998735938936</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="D22">
+        <v>0.9999798779190785</v>
+      </c>
+      <c r="E22">
+        <v>0.9999798779190785</v>
+      </c>
+      <c r="F22">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="G22">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="H22">
+        <v>0.9999889312744372</v>
+      </c>
+      <c r="I22">
+        <v>1.000013417029376</v>
+      </c>
+      <c r="J22">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="K22">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="L22">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="M22">
+        <v>0.9999924546049713</v>
+      </c>
+      <c r="N22">
+        <v>0.9999924546049713</v>
+      </c>
+      <c r="O22">
+        <v>0.9999912801614599</v>
+      </c>
+      <c r="P22">
+        <v>0.9999966468336022</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999966468336022</v>
+      </c>
+      <c r="R22">
+        <v>0.9999987429479178</v>
+      </c>
+      <c r="S22">
+        <v>0.9999987429479178</v>
+      </c>
+      <c r="T22">
+        <v>0.9999995533492473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.000011783923545</v>
       </c>
-      <c r="D19">
-        <v>0.999952857912359</v>
-      </c>
-      <c r="E19">
+      <c r="D23">
+        <v>0.9999528579123589</v>
+      </c>
+      <c r="E23">
+        <v>0.9999528579123589</v>
+      </c>
+      <c r="F23">
         <v>1.000011783923545</v>
       </c>
-      <c r="F19">
+      <c r="G23">
         <v>1.000011783923545</v>
       </c>
-      <c r="G19">
+      <c r="H23">
+        <v>0.9999740770754297</v>
+      </c>
+      <c r="I23">
         <v>1.000031426453913</v>
       </c>
-      <c r="H19">
-        <v>0.9999740770754297</v>
-      </c>
-      <c r="I19">
+      <c r="J23">
         <v>1.000011783923545</v>
       </c>
-      <c r="J19">
-        <v>0.999952857912359</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.000011783923545</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000011783923545</v>
       </c>
-      <c r="M19">
-        <v>0.9999823209179521</v>
-      </c>
-      <c r="N19">
-        <v>0.9999823209179521</v>
-      </c>
-      <c r="O19">
-        <v>0.9999795729704447</v>
-      </c>
-      <c r="P19">
+      <c r="M23">
+        <v>0.999982320917952</v>
+      </c>
+      <c r="N23">
+        <v>0.999982320917952</v>
+      </c>
+      <c r="O23">
+        <v>0.9999795729704446</v>
+      </c>
+      <c r="P23">
         <v>0.9999921419198164</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9999921419198164</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999970524207487</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999970524207487</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999989522020561</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000016338583803</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="D3">
-        <v>0.9999346472413927</v>
+        <v>0.9993103309798268</v>
       </c>
       <c r="E3">
-        <v>0.9999346472413927</v>
+        <v>0.9993103309798268</v>
       </c>
       <c r="F3">
-        <v>1.000016338583803</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="G3">
-        <v>1.000016338583803</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="H3">
-        <v>0.999964057581783</v>
+        <v>0.9996206838400572</v>
       </c>
       <c r="I3">
-        <v>1.000043567992867</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="J3">
-        <v>1.000016338583803</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="K3">
-        <v>1.000016338583803</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="L3">
-        <v>1.000016338583803</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="M3">
-        <v>0.9999754929125977</v>
+        <v>0.9997413738364544</v>
       </c>
       <c r="N3">
-        <v>0.9999754929125977</v>
+        <v>0.9997413738364544</v>
       </c>
       <c r="O3">
-        <v>0.9999716811356594</v>
+        <v>0.9997011438376554</v>
       </c>
       <c r="P3">
-        <v>0.9999891081363327</v>
+        <v>0.9998850547886636</v>
       </c>
       <c r="Q3">
-        <v>0.9999891081363327</v>
+        <v>0.9998850547886636</v>
       </c>
       <c r="R3">
-        <v>0.9999959157482001</v>
+        <v>0.9999568952647682</v>
       </c>
       <c r="S3">
-        <v>0.9999959157482001</v>
+        <v>0.9999568952647682</v>
       </c>
       <c r="T3">
-        <v>0.9999985480945752</v>
+        <v>0.9999846738772806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000031540050173</v>
+        <v>1.000157593548266</v>
       </c>
       <c r="D4">
-        <v>0.9998738372178897</v>
+        <v>0.9993696256783438</v>
       </c>
       <c r="E4">
-        <v>0.9998738372178897</v>
+        <v>0.9993696256783438</v>
       </c>
       <c r="F4">
-        <v>1.000031540050173</v>
+        <v>1.000157593548266</v>
       </c>
       <c r="G4">
-        <v>1.000031540050173</v>
+        <v>1.000157593548266</v>
       </c>
       <c r="H4">
-        <v>0.9999306129898526</v>
+        <v>0.9996532958265026</v>
       </c>
       <c r="I4">
-        <v>1.000084107857689</v>
+        <v>1.0004202485082</v>
       </c>
       <c r="J4">
-        <v>1.000031540050173</v>
+        <v>1.000157593548266</v>
       </c>
       <c r="K4">
-        <v>1.000031540050173</v>
+        <v>1.000157593548266</v>
       </c>
       <c r="L4">
-        <v>1.000031540050173</v>
+        <v>1.000157593548266</v>
       </c>
       <c r="M4">
-        <v>0.9999526886340313</v>
+        <v>0.9997636096133049</v>
       </c>
       <c r="N4">
-        <v>0.9999526886340313</v>
+        <v>0.9997636096133049</v>
       </c>
       <c r="O4">
-        <v>0.9999453300859718</v>
+        <v>0.9997268383510375</v>
       </c>
       <c r="P4">
-        <v>0.9999789724394118</v>
+        <v>0.9998949375916254</v>
       </c>
       <c r="Q4">
-        <v>0.9999789724394118</v>
+        <v>0.9998949375916254</v>
       </c>
       <c r="R4">
-        <v>0.9999921143421021</v>
+        <v>0.9999606015807856</v>
       </c>
       <c r="S4">
-        <v>0.9999921143421021</v>
+        <v>0.9999606015807856</v>
       </c>
       <c r="T4">
-        <v>0.9999971963693252</v>
+        <v>0.9999859917763075</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000060438927275</v>
+        <v>1.000198358975742</v>
       </c>
       <c r="D5">
-        <v>0.9997582243656344</v>
+        <v>0.9992065552830204</v>
       </c>
       <c r="E5">
-        <v>0.9997582243656344</v>
+        <v>0.9992065552830204</v>
       </c>
       <c r="F5">
-        <v>1.000060438927275</v>
+        <v>1.000198358975742</v>
       </c>
       <c r="G5">
-        <v>1.000060438927275</v>
+        <v>1.000198358975742</v>
       </c>
       <c r="H5">
-        <v>0.9998670286552583</v>
+        <v>0.9995636078975727</v>
       </c>
       <c r="I5">
-        <v>1.000161185399341</v>
+        <v>1.000528964258761</v>
       </c>
       <c r="J5">
-        <v>1.000060438927275</v>
+        <v>1.000198358975742</v>
       </c>
       <c r="K5">
-        <v>1.000060438927275</v>
+        <v>1.000198358975742</v>
       </c>
       <c r="L5">
-        <v>1.000060438927275</v>
+        <v>1.000198358975742</v>
       </c>
       <c r="M5">
-        <v>0.9999093316464546</v>
+        <v>0.9997024571293811</v>
       </c>
       <c r="N5">
-        <v>0.9999093316464546</v>
+        <v>0.9997024571293811</v>
       </c>
       <c r="O5">
-        <v>0.9998952306493892</v>
+        <v>0.9996561740521116</v>
       </c>
       <c r="P5">
-        <v>0.9999597007400612</v>
+        <v>0.9998677577448346</v>
       </c>
       <c r="Q5">
-        <v>0.9999597007400612</v>
+        <v>0.9998677577448346</v>
       </c>
       <c r="R5">
-        <v>0.9999848852868647</v>
+        <v>0.9999504080525614</v>
       </c>
       <c r="S5">
-        <v>0.9999848852868647</v>
+        <v>0.9999504080525614</v>
       </c>
       <c r="T5">
-        <v>0.9999946258670095</v>
+        <v>0.9999823673944298</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000088647805852</v>
+        <v>1.000219949034092</v>
       </c>
       <c r="D6">
-        <v>0.9996453958735342</v>
+        <v>0.9991201659659084</v>
       </c>
       <c r="E6">
-        <v>0.9996453958735342</v>
+        <v>0.9991201659659084</v>
       </c>
       <c r="F6">
-        <v>1.000088647805852</v>
+        <v>1.000219949034092</v>
       </c>
       <c r="G6">
-        <v>1.000088647805852</v>
+        <v>1.000219949034092</v>
       </c>
       <c r="H6">
-        <v>0.9998049685953444</v>
+        <v>0.9995160936363636</v>
       </c>
       <c r="I6">
-        <v>1.000236399566401</v>
+        <v>1.000586556079546</v>
       </c>
       <c r="J6">
-        <v>1.000088647805852</v>
+        <v>1.000219949034092</v>
       </c>
       <c r="K6">
-        <v>1.000088647805852</v>
+        <v>1.000219949034092</v>
       </c>
       <c r="L6">
-        <v>1.000088647805852</v>
+        <v>1.000219949034092</v>
       </c>
       <c r="M6">
-        <v>0.999867021839693</v>
+        <v>0.9996700575</v>
       </c>
       <c r="N6">
-        <v>0.999867021839693</v>
+        <v>0.9996700575</v>
       </c>
       <c r="O6">
-        <v>0.9998463374249101</v>
+        <v>0.9996187362121213</v>
       </c>
       <c r="P6">
-        <v>0.9999408971617459</v>
+        <v>0.9998533546780305</v>
       </c>
       <c r="Q6">
-        <v>0.9999408971617459</v>
+        <v>0.9998533546780305</v>
       </c>
       <c r="R6">
-        <v>0.9999778348227724</v>
+        <v>0.9999450032670458</v>
       </c>
       <c r="S6">
-        <v>0.9999778348227724</v>
+        <v>0.9999450032670458</v>
       </c>
       <c r="T6">
-        <v>0.9999921179088059</v>
+        <v>0.9999804437973489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000000486165669</v>
+        <v>1.00032772088349</v>
       </c>
       <c r="D7">
-        <v>0.9999980594444019</v>
+        <v>0.9986890827033273</v>
       </c>
       <c r="E7">
-        <v>0.9999980594444019</v>
+        <v>0.9986890827033273</v>
       </c>
       <c r="F7">
-        <v>1.000000486165669</v>
+        <v>1.00032772088349</v>
       </c>
       <c r="G7">
-        <v>1.000000486165669</v>
+        <v>1.00032772088349</v>
       </c>
       <c r="H7">
-        <v>0.9999989341772036</v>
+        <v>0.9992790003316154</v>
       </c>
       <c r="I7">
-        <v>1.000001292768302</v>
+        <v>1.000873944839911</v>
       </c>
       <c r="J7">
-        <v>1.000000486165669</v>
+        <v>1.00032772088349</v>
       </c>
       <c r="K7">
-        <v>1.000000486165669</v>
+        <v>1.00032772088349</v>
       </c>
       <c r="L7">
-        <v>1.000000486165669</v>
+        <v>1.00032772088349</v>
       </c>
       <c r="M7">
-        <v>0.9999992728050358</v>
+        <v>0.9995084017934088</v>
       </c>
       <c r="N7">
-        <v>0.9999992728050358</v>
+        <v>0.9995084017934088</v>
       </c>
       <c r="O7">
-        <v>0.9999991599290917</v>
+        <v>0.9994319346394777</v>
       </c>
       <c r="P7">
-        <v>0.9999996772585803</v>
+        <v>0.9997815081567692</v>
       </c>
       <c r="Q7">
-        <v>0.9999996772585803</v>
+        <v>0.9997815081567692</v>
       </c>
       <c r="R7">
-        <v>0.9999998794853526</v>
+        <v>0.9999180613384495</v>
       </c>
       <c r="S7">
-        <v>0.9999998794853526</v>
+        <v>0.9999180613384495</v>
       </c>
       <c r="T7">
-        <v>0.9999999574811526</v>
+        <v>0.9999708650875542</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000000183625916</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="D8">
-        <v>0.9999992693106465</v>
+        <v>0.9987164438054673</v>
       </c>
       <c r="E8">
-        <v>0.9999992693106465</v>
+        <v>0.9987164438054673</v>
       </c>
       <c r="F8">
-        <v>1.000000183625916</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="G8">
-        <v>1.000000183625916</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="H8">
-        <v>0.999999599493442</v>
+        <v>0.9992940488817119</v>
       </c>
       <c r="I8">
-        <v>1.000000486009434</v>
+        <v>1.000855704199693</v>
       </c>
       <c r="J8">
-        <v>1.000000183625916</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="K8">
-        <v>1.000000183625916</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="L8">
-        <v>1.000000183625916</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="M8">
-        <v>0.9999997264682813</v>
+        <v>0.9995186621660779</v>
       </c>
       <c r="N8">
-        <v>0.9999997264682813</v>
+        <v>0.9995186621660779</v>
       </c>
       <c r="O8">
-        <v>0.9999996841433348</v>
+        <v>0.9994437910712892</v>
       </c>
       <c r="P8">
-        <v>0.9999998788541595</v>
+        <v>0.9997860682862815</v>
       </c>
       <c r="Q8">
-        <v>0.9999998788541595</v>
+        <v>0.9997860682862815</v>
       </c>
       <c r="R8">
-        <v>0.9999999550470986</v>
+        <v>0.9999197713463832</v>
       </c>
       <c r="S8">
-        <v>0.9999999550470986</v>
+        <v>0.9999197713463832</v>
       </c>
       <c r="T8">
-        <v>0.9999999842818784</v>
+        <v>0.999971473077823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999983370882055</v>
+        <v>1.000319083357711</v>
       </c>
       <c r="D9">
-        <v>1.00000665505566</v>
+        <v>0.9987236321275881</v>
       </c>
       <c r="E9">
-        <v>1.00000665505566</v>
+        <v>0.9987236321275881</v>
       </c>
       <c r="F9">
-        <v>0.9999983370882055</v>
+        <v>1.000319083357711</v>
       </c>
       <c r="G9">
-        <v>0.9999983370882055</v>
+        <v>1.000319083357711</v>
       </c>
       <c r="H9">
-        <v>1.000003661595367</v>
+        <v>0.9992980024620765</v>
       </c>
       <c r="I9">
-        <v>0.9999955621507092</v>
+        <v>1.000850911984995</v>
       </c>
       <c r="J9">
-        <v>0.9999983370882055</v>
+        <v>1.000319083357711</v>
       </c>
       <c r="K9">
-        <v>0.9999983370882055</v>
+        <v>1.000319083357711</v>
       </c>
       <c r="L9">
-        <v>0.9999983370882055</v>
+        <v>1.000319083357711</v>
       </c>
       <c r="M9">
-        <v>1.000002496071933</v>
+        <v>0.9995213577426495</v>
       </c>
       <c r="N9">
-        <v>1.000002496071933</v>
+        <v>0.9995213577426495</v>
       </c>
       <c r="O9">
-        <v>1.000002884579744</v>
+        <v>0.9994469059824586</v>
       </c>
       <c r="P9">
-        <v>1.000001109744024</v>
+        <v>0.9997872662810033</v>
       </c>
       <c r="Q9">
-        <v>1.000001109744024</v>
+        <v>0.9997872662810033</v>
       </c>
       <c r="R9">
-        <v>1.000000416580069</v>
+        <v>0.9999202205501803</v>
       </c>
       <c r="S9">
-        <v>1.000000416580069</v>
+        <v>0.9999202205501803</v>
       </c>
       <c r="T9">
-        <v>1.000000148344392</v>
+        <v>0.9999716327746322</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999981533096574</v>
+        <v>1.000277856005003</v>
       </c>
       <c r="D10">
-        <v>1.000007393278709</v>
+        <v>0.9988885411750147</v>
       </c>
       <c r="E10">
-        <v>1.000007393278709</v>
+        <v>0.9988885411750147</v>
       </c>
       <c r="F10">
-        <v>0.9999981533096574</v>
+        <v>1.000277856005003</v>
       </c>
       <c r="G10">
-        <v>0.9999981533096574</v>
+        <v>1.000277856005003</v>
       </c>
       <c r="H10">
-        <v>1.000004068484211</v>
+        <v>0.9993887022421066</v>
       </c>
       <c r="I10">
-        <v>0.9999950707193996</v>
+        <v>1.000740972658858</v>
       </c>
       <c r="J10">
-        <v>0.9999981533096574</v>
+        <v>1.000277856005003</v>
       </c>
       <c r="K10">
-        <v>0.9999981533096574</v>
+        <v>1.000277856005003</v>
       </c>
       <c r="L10">
-        <v>0.9999981533096574</v>
+        <v>1.000277856005003</v>
       </c>
       <c r="M10">
-        <v>1.000002773294183</v>
+        <v>0.999583198590009</v>
       </c>
       <c r="N10">
-        <v>1.000002773294183</v>
+        <v>0.999583198590009</v>
       </c>
       <c r="O10">
-        <v>1.000003205024192</v>
+        <v>0.9995183664740415</v>
       </c>
       <c r="P10">
-        <v>1.000001233299341</v>
+        <v>0.9998147510616738</v>
       </c>
       <c r="Q10">
-        <v>1.000001233299341</v>
+        <v>0.9998147510616738</v>
       </c>
       <c r="R10">
-        <v>1.00000046330192</v>
+        <v>0.9999305272975062</v>
       </c>
       <c r="S10">
-        <v>1.00000046330192</v>
+        <v>0.9999305272975062</v>
       </c>
       <c r="T10">
-        <v>1.000000165401882</v>
+        <v>0.9999752973484983</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999925601641224</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="D11">
-        <v>1.000029761041818</v>
+        <v>0.9999239922974491</v>
       </c>
       <c r="E11">
-        <v>1.000029761041818</v>
+        <v>0.9999239922974491</v>
       </c>
       <c r="F11">
-        <v>0.9999925601641224</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="G11">
-        <v>0.9999925601641224</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="H11">
-        <v>1.000016371160507</v>
+        <v>0.999958197477169</v>
       </c>
       <c r="I11">
-        <v>0.9999801582747998</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="J11">
-        <v>0.9999925601641224</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="K11">
-        <v>0.9999925601641224</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="L11">
-        <v>0.9999925601641224</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="M11">
-        <v>1.00001116060297</v>
+        <v>0.9999714975026923</v>
       </c>
       <c r="N11">
-        <v>1.00001116060297</v>
+        <v>0.9999714975026923</v>
       </c>
       <c r="O11">
-        <v>1.000012897455482</v>
+        <v>0.9999670641608512</v>
       </c>
       <c r="P11">
-        <v>1.000004960456688</v>
+        <v>0.9999873325711067</v>
       </c>
       <c r="Q11">
-        <v>1.000004960456688</v>
+        <v>0.9999873325711067</v>
       </c>
       <c r="R11">
-        <v>1.000001860383546</v>
+        <v>0.999995250105314</v>
       </c>
       <c r="S11">
-        <v>1.000001860383546</v>
+        <v>0.999995250105314</v>
       </c>
       <c r="T11">
-        <v>1.000000661828248</v>
+        <v>0.9999983115356402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000028097300705</v>
+        <v>1.000007824424057</v>
       </c>
       <c r="D12">
-        <v>0.9998876122407557</v>
+        <v>0.9999687052444257</v>
       </c>
       <c r="E12">
-        <v>0.9998876122407557</v>
+        <v>0.9999687052444257</v>
       </c>
       <c r="F12">
-        <v>1.000028097300705</v>
+        <v>1.000007824424057</v>
       </c>
       <c r="G12">
-        <v>1.000028097300705</v>
+        <v>1.000007824424057</v>
       </c>
       <c r="H12">
-        <v>0.9999381882324063</v>
+        <v>0.999982789499847</v>
       </c>
       <c r="I12">
-        <v>1.000074918695383</v>
+        <v>1.000020862266136</v>
       </c>
       <c r="J12">
-        <v>1.000028097300705</v>
+        <v>1.000007824424057</v>
       </c>
       <c r="K12">
-        <v>1.000028097300705</v>
+        <v>1.000007824424057</v>
       </c>
       <c r="L12">
-        <v>1.000028097300705</v>
+        <v>1.000007824424057</v>
       </c>
       <c r="M12">
-        <v>0.9999578547707304</v>
+        <v>0.9999882648342413</v>
       </c>
       <c r="N12">
-        <v>0.9999578547707304</v>
+        <v>0.9999882648342413</v>
       </c>
       <c r="O12">
-        <v>0.9999512992579557</v>
+        <v>0.9999864397227766</v>
       </c>
       <c r="P12">
-        <v>0.9999812689473887</v>
+        <v>0.9999947846975132</v>
       </c>
       <c r="Q12">
-        <v>0.9999812689473887</v>
+        <v>0.9999947846975132</v>
       </c>
       <c r="R12">
-        <v>0.9999929760357178</v>
+        <v>0.9999980446291492</v>
       </c>
       <c r="S12">
-        <v>0.9999929760357178</v>
+        <v>0.9999980446291492</v>
       </c>
       <c r="T12">
-        <v>0.9999975018451103</v>
+        <v>0.9999993050470967</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000007626290974</v>
+        <v>1.000012317694586</v>
       </c>
       <c r="D13">
-        <v>0.9999695108552538</v>
+        <v>0.9999507325206057</v>
       </c>
       <c r="E13">
-        <v>0.9999695108552538</v>
+        <v>0.9999507325206057</v>
       </c>
       <c r="F13">
-        <v>1.000007626290974</v>
+        <v>1.000012317694586</v>
       </c>
       <c r="G13">
-        <v>1.000007626290974</v>
+        <v>1.000012317694586</v>
       </c>
       <c r="H13">
-        <v>0.9999832304387672</v>
+        <v>0.9999729059760675</v>
       </c>
       <c r="I13">
-        <v>1.000020322947068</v>
+        <v>1.000032844498357</v>
       </c>
       <c r="J13">
-        <v>1.000007626290974</v>
+        <v>1.000012317694586</v>
       </c>
       <c r="K13">
-        <v>1.000007626290974</v>
+        <v>1.000012317694586</v>
       </c>
       <c r="L13">
-        <v>1.000007626290974</v>
+        <v>1.000012317694586</v>
       </c>
       <c r="M13">
-        <v>0.9999885685731138</v>
+        <v>0.9999815251075959</v>
       </c>
       <c r="N13">
-        <v>0.9999885685731138</v>
+        <v>0.9999815251075959</v>
       </c>
       <c r="O13">
-        <v>0.9999867891949984</v>
+        <v>0.9999786520637531</v>
       </c>
       <c r="P13">
-        <v>0.9999949211457339</v>
+        <v>0.9999917893032592</v>
       </c>
       <c r="Q13">
-        <v>0.9999949211457339</v>
+        <v>0.9999917893032592</v>
       </c>
       <c r="R13">
-        <v>0.9999980974320438</v>
+        <v>0.9999969214010909</v>
       </c>
       <c r="S13">
-        <v>0.9999980974320438</v>
+        <v>0.9999969214010909</v>
       </c>
       <c r="T13">
-        <v>0.9999993238523351</v>
+        <v>0.9999989060131314</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9973269266129244</v>
+        <v>1.000045269977692</v>
       </c>
       <c r="D14">
-        <v>1.010692306143848</v>
+        <v>0.9998189045623366</v>
       </c>
       <c r="E14">
-        <v>1.010692306143848</v>
+        <v>0.9998189045623366</v>
       </c>
       <c r="F14">
-        <v>0.9973269266129244</v>
+        <v>1.000045269977692</v>
       </c>
       <c r="G14">
-        <v>0.9973269266129244</v>
+        <v>1.000045269977692</v>
       </c>
       <c r="H14">
-        <v>1.005880777237486</v>
+        <v>0.9999004026801874</v>
       </c>
       <c r="I14">
-        <v>0.9928718018038819</v>
+        <v>1.000120729823221</v>
       </c>
       <c r="J14">
-        <v>0.9973269266129244</v>
+        <v>1.000045269977692</v>
       </c>
       <c r="K14">
-        <v>0.9973269266129244</v>
+        <v>1.000045269977692</v>
       </c>
       <c r="L14">
-        <v>0.9973269266129244</v>
+        <v>1.000045269977692</v>
       </c>
       <c r="M14">
-        <v>1.004009616378386</v>
+        <v>0.9999320872700141</v>
       </c>
       <c r="N14">
-        <v>1.004009616378386</v>
+        <v>0.9999320872700141</v>
       </c>
       <c r="O14">
-        <v>1.004633336664753</v>
+        <v>0.9999215257400719</v>
       </c>
       <c r="P14">
-        <v>1.001782053123232</v>
+        <v>0.9999698148392401</v>
       </c>
       <c r="Q14">
-        <v>1.001782053123232</v>
+        <v>0.9999698148392401</v>
       </c>
       <c r="R14">
-        <v>1.000668271495655</v>
+        <v>0.999988678623853</v>
       </c>
       <c r="S14">
-        <v>1.000668271495655</v>
+        <v>0.999988678623853</v>
       </c>
       <c r="T14">
-        <v>1.000237610837331</v>
+        <v>0.9999959744998034</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9992875286153806</v>
+        <v>1.000016338583803</v>
       </c>
       <c r="D15">
-        <v>1.00284988332352</v>
+        <v>0.9999346472413927</v>
       </c>
       <c r="E15">
-        <v>1.00284988332352</v>
+        <v>0.9999346472413927</v>
       </c>
       <c r="F15">
-        <v>0.9992875286153806</v>
+        <v>1.000016338583803</v>
       </c>
       <c r="G15">
-        <v>0.9992875286153806</v>
+        <v>1.000016338583803</v>
       </c>
       <c r="H15">
-        <v>1.001567436407662</v>
+        <v>0.999964057581783</v>
       </c>
       <c r="I15">
-        <v>0.9981000766135258</v>
+        <v>1.000043567992867</v>
       </c>
       <c r="J15">
-        <v>0.9992875286153806</v>
+        <v>1.000016338583803</v>
       </c>
       <c r="K15">
-        <v>0.9992875286153806</v>
+        <v>1.000016338583803</v>
       </c>
       <c r="L15">
-        <v>0.9992875286153806</v>
+        <v>1.000016338583803</v>
       </c>
       <c r="M15">
-        <v>1.001068705969451</v>
+        <v>0.9999754929125977</v>
       </c>
       <c r="N15">
-        <v>1.001068705969451</v>
+        <v>0.9999754929125977</v>
       </c>
       <c r="O15">
-        <v>1.001234949448854</v>
+        <v>0.9999716811356594</v>
       </c>
       <c r="P15">
-        <v>1.000474980184761</v>
+        <v>0.9999891081363327</v>
       </c>
       <c r="Q15">
-        <v>1.000474980184761</v>
+        <v>0.9999891081363327</v>
       </c>
       <c r="R15">
-        <v>1.000178117292416</v>
+        <v>0.9999959157482001</v>
       </c>
       <c r="S15">
-        <v>1.000178117292416</v>
+        <v>0.9999959157482001</v>
       </c>
       <c r="T15">
-        <v>1.000063330365142</v>
+        <v>0.9999985480945752</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000318270451064</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="D16">
-        <v>0.9987268898949458</v>
+        <v>0.9998738372178897</v>
       </c>
       <c r="E16">
-        <v>0.9987268898949458</v>
+        <v>0.9998738372178897</v>
       </c>
       <c r="F16">
-        <v>1.000318270451064</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="G16">
-        <v>1.000318270451064</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="H16">
-        <v>0.9992997933641357</v>
+        <v>0.9999306129898526</v>
       </c>
       <c r="I16">
-        <v>1.000848740562993</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="J16">
-        <v>1.000318270451064</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="K16">
-        <v>1.000318270451064</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="L16">
-        <v>1.000318270451064</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="M16">
-        <v>0.999522580173005</v>
+        <v>0.9999526886340313</v>
       </c>
       <c r="N16">
-        <v>0.999522580173005</v>
+        <v>0.9999526886340313</v>
       </c>
       <c r="O16">
-        <v>0.999448317903382</v>
+        <v>0.9999453300859718</v>
       </c>
       <c r="P16">
-        <v>0.9997878102656914</v>
+        <v>0.9999789724394118</v>
       </c>
       <c r="Q16">
-        <v>0.9997878102656914</v>
+        <v>0.9999789724394118</v>
       </c>
       <c r="R16">
-        <v>0.9999204253120346</v>
+        <v>0.9999921143421021</v>
       </c>
       <c r="S16">
-        <v>0.9999204253120346</v>
+        <v>0.9999921143421021</v>
       </c>
       <c r="T16">
-        <v>0.9999717058625445</v>
+        <v>0.9999971963693252</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000259128756796</v>
+        <v>1.000060438927275</v>
       </c>
       <c r="D17">
-        <v>0.998963466652855</v>
+        <v>0.9997582243656344</v>
       </c>
       <c r="E17">
-        <v>0.998963466652855</v>
+        <v>0.9997582243656344</v>
       </c>
       <c r="F17">
-        <v>1.000259128756796</v>
+        <v>1.000060438927275</v>
       </c>
       <c r="G17">
-        <v>1.000259128756796</v>
+        <v>1.000060438927275</v>
       </c>
       <c r="H17">
-        <v>0.9994299098057376</v>
+        <v>0.9998670286552583</v>
       </c>
       <c r="I17">
-        <v>1.000691022201087</v>
+        <v>1.000161185399341</v>
       </c>
       <c r="J17">
-        <v>1.000259128756796</v>
+        <v>1.000060438927275</v>
       </c>
       <c r="K17">
-        <v>1.000259128756796</v>
+        <v>1.000060438927275</v>
       </c>
       <c r="L17">
-        <v>1.000259128756796</v>
+        <v>1.000060438927275</v>
       </c>
       <c r="M17">
-        <v>0.9996112977048257</v>
+        <v>0.9999093316464546</v>
       </c>
       <c r="N17">
-        <v>0.9996112977048257</v>
+        <v>0.9999093316464546</v>
       </c>
       <c r="O17">
-        <v>0.9995508350717963</v>
+        <v>0.9998952306493892</v>
       </c>
       <c r="P17">
-        <v>0.999827241388816</v>
+        <v>0.9999597007400612</v>
       </c>
       <c r="Q17">
-        <v>0.999827241388816</v>
+        <v>0.9999597007400612</v>
       </c>
       <c r="R17">
-        <v>0.999935213230811</v>
+        <v>0.9999848852868647</v>
       </c>
       <c r="S17">
-        <v>0.999935213230811</v>
+        <v>0.9999848852868647</v>
       </c>
       <c r="T17">
-        <v>0.9999769641550112</v>
+        <v>0.9999946258670095</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000137693002349</v>
+        <v>1.000088647805852</v>
       </c>
       <c r="D18">
-        <v>0.9994492277827457</v>
+        <v>0.9996453958735342</v>
       </c>
       <c r="E18">
-        <v>0.9994492277827457</v>
+        <v>0.9996453958735342</v>
       </c>
       <c r="F18">
-        <v>1.000137693002349</v>
+        <v>1.000088647805852</v>
       </c>
       <c r="G18">
-        <v>1.000137693002349</v>
+        <v>1.000088647805852</v>
       </c>
       <c r="H18">
-        <v>0.9996970772591905</v>
+        <v>0.9998049685953444</v>
       </c>
       <c r="I18">
-        <v>1.000367182294833</v>
+        <v>1.000236399566401</v>
       </c>
       <c r="J18">
-        <v>1.000137693002349</v>
+        <v>1.000088647805852</v>
       </c>
       <c r="K18">
-        <v>1.000137693002349</v>
+        <v>1.000088647805852</v>
       </c>
       <c r="L18">
-        <v>1.000137693002349</v>
+        <v>1.000088647805852</v>
       </c>
       <c r="M18">
-        <v>0.9997934603925471</v>
+        <v>0.999867021839693</v>
       </c>
       <c r="N18">
-        <v>0.9997934603925471</v>
+        <v>0.999867021839693</v>
       </c>
       <c r="O18">
-        <v>0.9997613326814282</v>
+        <v>0.9998463374249101</v>
       </c>
       <c r="P18">
-        <v>0.9999082045958142</v>
+        <v>0.9999408971617459</v>
       </c>
       <c r="Q18">
-        <v>0.9999082045958142</v>
+        <v>0.9999408971617459</v>
       </c>
       <c r="R18">
-        <v>0.9999655766974478</v>
+        <v>0.9999778348227724</v>
       </c>
       <c r="S18">
-        <v>0.9999655766974478</v>
+        <v>0.9999778348227724</v>
       </c>
       <c r="T18">
-        <v>0.9999877610573025</v>
+        <v>0.9999921179088059</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000158280110227</v>
+        <v>1.000000486165669</v>
       </c>
       <c r="D19">
-        <v>0.9993668731649471</v>
+        <v>0.9999980594444019</v>
       </c>
       <c r="E19">
-        <v>0.9993668731649471</v>
+        <v>0.9999980594444019</v>
       </c>
       <c r="F19">
-        <v>1.000158280110227</v>
+        <v>1.000000486165669</v>
       </c>
       <c r="G19">
-        <v>1.000158280110227</v>
+        <v>1.000000486165669</v>
       </c>
       <c r="H19">
-        <v>0.9996517812912679</v>
+        <v>0.9999989341772036</v>
       </c>
       <c r="I19">
-        <v>1.000422086367302</v>
+        <v>1.000001292768302</v>
       </c>
       <c r="J19">
-        <v>1.000158280110227</v>
+        <v>1.000000486165669</v>
       </c>
       <c r="K19">
-        <v>1.000158280110227</v>
+        <v>1.000000486165669</v>
       </c>
       <c r="L19">
-        <v>1.000158280110227</v>
+        <v>1.000000486165669</v>
       </c>
       <c r="M19">
-        <v>0.9997625766375871</v>
+        <v>0.9999992728050358</v>
       </c>
       <c r="N19">
-        <v>0.9997625766375871</v>
+        <v>0.9999992728050358</v>
       </c>
       <c r="O19">
-        <v>0.9997256448554807</v>
+        <v>0.9999991599290917</v>
       </c>
       <c r="P19">
-        <v>0.9998944777951339</v>
+        <v>0.9999996772585803</v>
       </c>
       <c r="Q19">
-        <v>0.9998944777951339</v>
+        <v>0.9999996772585803</v>
       </c>
       <c r="R19">
-        <v>0.9999604283739072</v>
+        <v>0.9999998794853526</v>
       </c>
       <c r="S19">
-        <v>0.9999604283739072</v>
+        <v>0.9999998794853526</v>
       </c>
       <c r="T19">
-        <v>0.9999859301923665</v>
+        <v>0.9999999574811526</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000000068692146</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="D20">
-        <v>0.9999997290498686</v>
+        <v>0.9999992693106465</v>
       </c>
       <c r="E20">
-        <v>0.9999997290498686</v>
+        <v>0.9999992693106465</v>
       </c>
       <c r="F20">
-        <v>1.000000068692146</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="G20">
-        <v>1.000000068692146</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="H20">
-        <v>0.9999998524162285</v>
+        <v>0.999999599493442</v>
       </c>
       <c r="I20">
-        <v>1.000000179893585</v>
+        <v>1.000000486009434</v>
       </c>
       <c r="J20">
-        <v>1.000000068692146</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="K20">
-        <v>1.000000068692146</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="L20">
-        <v>1.000000068692146</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="M20">
-        <v>0.9999998988710074</v>
+        <v>0.9999997264682813</v>
       </c>
       <c r="N20">
-        <v>0.9999998988710074</v>
+        <v>0.9999997264682813</v>
       </c>
       <c r="O20">
-        <v>0.999999883386081</v>
+        <v>0.9999996841433348</v>
       </c>
       <c r="P20">
-        <v>0.9999999554780535</v>
+        <v>0.9999998788541595</v>
       </c>
       <c r="Q20">
-        <v>0.9999999554780535</v>
+        <v>0.9999998788541595</v>
       </c>
       <c r="R20">
-        <v>0.9999999837815767</v>
+        <v>0.9999999550470986</v>
       </c>
       <c r="S20">
-        <v>0.9999999837815767</v>
+        <v>0.9999999550470986</v>
       </c>
       <c r="T20">
-        <v>0.9999999945726867</v>
+        <v>0.9999999842818784</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000001430164178</v>
+        <v>0.9999983370882055</v>
       </c>
       <c r="D21">
-        <v>0.9999942836438702</v>
+        <v>1.00000665505566</v>
       </c>
       <c r="E21">
-        <v>0.9999942836438702</v>
+        <v>1.00000665505566</v>
       </c>
       <c r="F21">
-        <v>1.000001430164178</v>
+        <v>0.9999983370882055</v>
       </c>
       <c r="G21">
-        <v>1.000001430164178</v>
+        <v>0.9999983370882055</v>
       </c>
       <c r="H21">
-        <v>0.9999968572775617</v>
+        <v>1.000003661595367</v>
       </c>
       <c r="I21">
-        <v>1.000003810149395</v>
+        <v>0.9999955621507092</v>
       </c>
       <c r="J21">
-        <v>1.000001430164178</v>
+        <v>0.9999983370882055</v>
       </c>
       <c r="K21">
-        <v>1.000001430164178</v>
+        <v>0.9999983370882055</v>
       </c>
       <c r="L21">
-        <v>1.000001430164178</v>
+        <v>0.9999983370882055</v>
       </c>
       <c r="M21">
-        <v>0.9999978569040242</v>
+        <v>1.000002496071933</v>
       </c>
       <c r="N21">
-        <v>0.9999978569040242</v>
+        <v>1.000002496071933</v>
       </c>
       <c r="O21">
-        <v>0.9999975236952033</v>
+        <v>1.000002884579744</v>
       </c>
       <c r="P21">
-        <v>0.9999990479907422</v>
+        <v>1.000001109744024</v>
       </c>
       <c r="Q21">
-        <v>0.9999990479907422</v>
+        <v>1.000001109744024</v>
       </c>
       <c r="R21">
-        <v>0.9999996435341012</v>
+        <v>1.000000416580069</v>
       </c>
       <c r="S21">
-        <v>0.9999996435341012</v>
+        <v>1.000000416580069</v>
       </c>
       <c r="T21">
-        <v>0.9999998735938936</v>
+        <v>1.000000148344392</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000005031290864</v>
+        <v>0.9999981533096574</v>
       </c>
       <c r="D22">
-        <v>0.9999798779190785</v>
+        <v>1.000007393278709</v>
       </c>
       <c r="E22">
-        <v>0.9999798779190785</v>
+        <v>1.000007393278709</v>
       </c>
       <c r="F22">
-        <v>1.000005031290864</v>
+        <v>0.9999981533096574</v>
       </c>
       <c r="G22">
-        <v>1.000005031290864</v>
+        <v>0.9999981533096574</v>
       </c>
       <c r="H22">
-        <v>0.9999889312744372</v>
+        <v>1.000004068484211</v>
       </c>
       <c r="I22">
-        <v>1.000013417029376</v>
+        <v>0.9999950707193996</v>
       </c>
       <c r="J22">
-        <v>1.000005031290864</v>
+        <v>0.9999981533096574</v>
       </c>
       <c r="K22">
-        <v>1.000005031290864</v>
+        <v>0.9999981533096574</v>
       </c>
       <c r="L22">
-        <v>1.000005031290864</v>
+        <v>0.9999981533096574</v>
       </c>
       <c r="M22">
-        <v>0.9999924546049713</v>
+        <v>1.000002773294183</v>
       </c>
       <c r="N22">
-        <v>0.9999924546049713</v>
+        <v>1.000002773294183</v>
       </c>
       <c r="O22">
-        <v>0.9999912801614599</v>
+        <v>1.000003205024192</v>
       </c>
       <c r="P22">
-        <v>0.9999966468336022</v>
+        <v>1.000001233299341</v>
       </c>
       <c r="Q22">
-        <v>0.9999966468336022</v>
+        <v>1.000001233299341</v>
       </c>
       <c r="R22">
-        <v>0.9999987429479178</v>
+        <v>1.00000046330192</v>
       </c>
       <c r="S22">
-        <v>0.9999987429479178</v>
+        <v>1.00000046330192</v>
       </c>
       <c r="T22">
-        <v>0.9999995533492473</v>
+        <v>1.000000165401882</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9999925601641224</v>
+      </c>
+      <c r="D23">
+        <v>1.000029761041818</v>
+      </c>
+      <c r="E23">
+        <v>1.000029761041818</v>
+      </c>
+      <c r="F23">
+        <v>0.9999925601641224</v>
+      </c>
+      <c r="G23">
+        <v>0.9999925601641224</v>
+      </c>
+      <c r="H23">
+        <v>1.000016371160507</v>
+      </c>
+      <c r="I23">
+        <v>0.9999801582747998</v>
+      </c>
+      <c r="J23">
+        <v>0.9999925601641224</v>
+      </c>
+      <c r="K23">
+        <v>0.9999925601641224</v>
+      </c>
+      <c r="L23">
+        <v>0.9999925601641224</v>
+      </c>
+      <c r="M23">
+        <v>1.00001116060297</v>
+      </c>
+      <c r="N23">
+        <v>1.00001116060297</v>
+      </c>
+      <c r="O23">
+        <v>1.000012897455482</v>
+      </c>
+      <c r="P23">
+        <v>1.000004960456688</v>
+      </c>
+      <c r="Q23">
+        <v>1.000004960456688</v>
+      </c>
+      <c r="R23">
+        <v>1.000001860383546</v>
+      </c>
+      <c r="S23">
+        <v>1.000001860383546</v>
+      </c>
+      <c r="T23">
+        <v>1.000000661828248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="D24">
+        <v>0.9998876122407557</v>
+      </c>
+      <c r="E24">
+        <v>0.9998876122407557</v>
+      </c>
+      <c r="F24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="G24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="H24">
+        <v>0.9999381882324063</v>
+      </c>
+      <c r="I24">
+        <v>1.000074918695383</v>
+      </c>
+      <c r="J24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="K24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="L24">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="M24">
+        <v>0.9999578547707304</v>
+      </c>
+      <c r="N24">
+        <v>0.9999578547707304</v>
+      </c>
+      <c r="O24">
+        <v>0.9999512992579557</v>
+      </c>
+      <c r="P24">
+        <v>0.9999812689473887</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999812689473887</v>
+      </c>
+      <c r="R24">
+        <v>0.9999929760357178</v>
+      </c>
+      <c r="S24">
+        <v>0.9999929760357178</v>
+      </c>
+      <c r="T24">
+        <v>0.9999975018451103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="D25">
+        <v>0.9999695108552538</v>
+      </c>
+      <c r="E25">
+        <v>0.9999695108552538</v>
+      </c>
+      <c r="F25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="G25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="H25">
+        <v>0.9999832304387672</v>
+      </c>
+      <c r="I25">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="J25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="K25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="L25">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="M25">
+        <v>0.9999885685731138</v>
+      </c>
+      <c r="N25">
+        <v>0.9999885685731138</v>
+      </c>
+      <c r="O25">
+        <v>0.9999867891949984</v>
+      </c>
+      <c r="P25">
+        <v>0.9999949211457339</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999949211457339</v>
+      </c>
+      <c r="R25">
+        <v>0.9999980974320438</v>
+      </c>
+      <c r="S25">
+        <v>0.9999980974320438</v>
+      </c>
+      <c r="T25">
+        <v>0.9999993238523351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="D26">
+        <v>1.010692306143848</v>
+      </c>
+      <c r="E26">
+        <v>1.010692306143848</v>
+      </c>
+      <c r="F26">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="G26">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="H26">
+        <v>1.005880777237486</v>
+      </c>
+      <c r="I26">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="J26">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="K26">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="L26">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="M26">
+        <v>1.004009616378386</v>
+      </c>
+      <c r="N26">
+        <v>1.004009616378386</v>
+      </c>
+      <c r="O26">
+        <v>1.004633336664753</v>
+      </c>
+      <c r="P26">
+        <v>1.001782053123232</v>
+      </c>
+      <c r="Q26">
+        <v>1.001782053123232</v>
+      </c>
+      <c r="R26">
+        <v>1.000668271495655</v>
+      </c>
+      <c r="S26">
+        <v>1.000668271495655</v>
+      </c>
+      <c r="T26">
+        <v>1.000237610837331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="D27">
+        <v>1.00284988332352</v>
+      </c>
+      <c r="E27">
+        <v>1.00284988332352</v>
+      </c>
+      <c r="F27">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="G27">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="H27">
+        <v>1.001567436407662</v>
+      </c>
+      <c r="I27">
+        <v>0.9981000766135258</v>
+      </c>
+      <c r="J27">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="K27">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="L27">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="M27">
+        <v>1.001068705969451</v>
+      </c>
+      <c r="N27">
+        <v>1.001068705969451</v>
+      </c>
+      <c r="O27">
+        <v>1.001234949448854</v>
+      </c>
+      <c r="P27">
+        <v>1.000474980184761</v>
+      </c>
+      <c r="Q27">
+        <v>1.000474980184761</v>
+      </c>
+      <c r="R27">
+        <v>1.000178117292416</v>
+      </c>
+      <c r="S27">
+        <v>1.000178117292416</v>
+      </c>
+      <c r="T27">
+        <v>1.000063330365142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000318270451064</v>
+      </c>
+      <c r="D28">
+        <v>0.9987268898949458</v>
+      </c>
+      <c r="E28">
+        <v>0.9987268898949458</v>
+      </c>
+      <c r="F28">
+        <v>1.000318270451064</v>
+      </c>
+      <c r="G28">
+        <v>1.000318270451064</v>
+      </c>
+      <c r="H28">
+        <v>0.9992997933641357</v>
+      </c>
+      <c r="I28">
+        <v>1.000848740562993</v>
+      </c>
+      <c r="J28">
+        <v>1.000318270451064</v>
+      </c>
+      <c r="K28">
+        <v>1.000318270451064</v>
+      </c>
+      <c r="L28">
+        <v>1.000318270451064</v>
+      </c>
+      <c r="M28">
+        <v>0.999522580173005</v>
+      </c>
+      <c r="N28">
+        <v>0.999522580173005</v>
+      </c>
+      <c r="O28">
+        <v>0.999448317903382</v>
+      </c>
+      <c r="P28">
+        <v>0.9997878102656914</v>
+      </c>
+      <c r="Q28">
+        <v>0.9997878102656914</v>
+      </c>
+      <c r="R28">
+        <v>0.9999204253120346</v>
+      </c>
+      <c r="S28">
+        <v>0.9999204253120346</v>
+      </c>
+      <c r="T28">
+        <v>0.9999717058625445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000259128756796</v>
+      </c>
+      <c r="D29">
+        <v>0.998963466652855</v>
+      </c>
+      <c r="E29">
+        <v>0.998963466652855</v>
+      </c>
+      <c r="F29">
+        <v>1.000259128756796</v>
+      </c>
+      <c r="G29">
+        <v>1.000259128756796</v>
+      </c>
+      <c r="H29">
+        <v>0.9994299098057376</v>
+      </c>
+      <c r="I29">
+        <v>1.000691022201087</v>
+      </c>
+      <c r="J29">
+        <v>1.000259128756796</v>
+      </c>
+      <c r="K29">
+        <v>1.000259128756796</v>
+      </c>
+      <c r="L29">
+        <v>1.000259128756796</v>
+      </c>
+      <c r="M29">
+        <v>0.9996112977048257</v>
+      </c>
+      <c r="N29">
+        <v>0.9996112977048257</v>
+      </c>
+      <c r="O29">
+        <v>0.9995508350717963</v>
+      </c>
+      <c r="P29">
+        <v>0.999827241388816</v>
+      </c>
+      <c r="Q29">
+        <v>0.999827241388816</v>
+      </c>
+      <c r="R29">
+        <v>0.999935213230811</v>
+      </c>
+      <c r="S29">
+        <v>0.999935213230811</v>
+      </c>
+      <c r="T29">
+        <v>0.9999769641550112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000137693002349</v>
+      </c>
+      <c r="D30">
+        <v>0.9994492277827457</v>
+      </c>
+      <c r="E30">
+        <v>0.9994492277827457</v>
+      </c>
+      <c r="F30">
+        <v>1.000137693002349</v>
+      </c>
+      <c r="G30">
+        <v>1.000137693002349</v>
+      </c>
+      <c r="H30">
+        <v>0.9996970772591905</v>
+      </c>
+      <c r="I30">
+        <v>1.000367182294833</v>
+      </c>
+      <c r="J30">
+        <v>1.000137693002349</v>
+      </c>
+      <c r="K30">
+        <v>1.000137693002349</v>
+      </c>
+      <c r="L30">
+        <v>1.000137693002349</v>
+      </c>
+      <c r="M30">
+        <v>0.9997934603925471</v>
+      </c>
+      <c r="N30">
+        <v>0.9997934603925471</v>
+      </c>
+      <c r="O30">
+        <v>0.9997613326814282</v>
+      </c>
+      <c r="P30">
+        <v>0.9999082045958142</v>
+      </c>
+      <c r="Q30">
+        <v>0.9999082045958142</v>
+      </c>
+      <c r="R30">
+        <v>0.9999655766974478</v>
+      </c>
+      <c r="S30">
+        <v>0.9999655766974478</v>
+      </c>
+      <c r="T30">
+        <v>0.9999877610573025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="D31">
+        <v>0.9993668731649471</v>
+      </c>
+      <c r="E31">
+        <v>0.9993668731649471</v>
+      </c>
+      <c r="F31">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="G31">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="H31">
+        <v>0.9996517812912679</v>
+      </c>
+      <c r="I31">
+        <v>1.000422086367302</v>
+      </c>
+      <c r="J31">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="K31">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="L31">
+        <v>1.000158280110227</v>
+      </c>
+      <c r="M31">
+        <v>0.9997625766375871</v>
+      </c>
+      <c r="N31">
+        <v>0.9997625766375871</v>
+      </c>
+      <c r="O31">
+        <v>0.9997256448554807</v>
+      </c>
+      <c r="P31">
+        <v>0.9998944777951339</v>
+      </c>
+      <c r="Q31">
+        <v>0.9998944777951339</v>
+      </c>
+      <c r="R31">
+        <v>0.9999604283739072</v>
+      </c>
+      <c r="S31">
+        <v>0.9999604283739072</v>
+      </c>
+      <c r="T31">
+        <v>0.9999859301923665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.000316801369863</v>
+      </c>
+      <c r="D32">
+        <v>0.9987327567123285</v>
+      </c>
+      <c r="E32">
+        <v>0.9987327567123285</v>
+      </c>
+      <c r="F32">
+        <v>1.000316801369863</v>
+      </c>
+      <c r="G32">
+        <v>1.000316801369863</v>
+      </c>
+      <c r="H32">
+        <v>0.9993030205479453</v>
+      </c>
+      <c r="I32">
+        <v>1.00084483</v>
+      </c>
+      <c r="J32">
+        <v>1.000316801369863</v>
+      </c>
+      <c r="K32">
+        <v>1.000316801369863</v>
+      </c>
+      <c r="L32">
+        <v>1.000316801369863</v>
+      </c>
+      <c r="M32">
+        <v>0.9995247790410959</v>
+      </c>
+      <c r="N32">
+        <v>0.9995247790410959</v>
+      </c>
+      <c r="O32">
+        <v>0.9994508595433791</v>
+      </c>
+      <c r="P32">
+        <v>0.9997887864840184</v>
+      </c>
+      <c r="Q32">
+        <v>0.9997887864840184</v>
+      </c>
+      <c r="R32">
+        <v>0.9999207902054796</v>
+      </c>
+      <c r="S32">
+        <v>0.9999207902054796</v>
+      </c>
+      <c r="T32">
+        <v>0.9999718352283108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="D33">
+        <v>1.005503925263158</v>
+      </c>
+      <c r="E33">
+        <v>1.005503925263158</v>
+      </c>
+      <c r="F33">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="G33">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="H33">
+        <v>1.003027150526316</v>
+      </c>
+      <c r="I33">
+        <v>0.9963307184210525</v>
+      </c>
+      <c r="J33">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="K33">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="L33">
+        <v>0.9986240136842104</v>
+      </c>
+      <c r="M33">
+        <v>1.002063969473684</v>
+      </c>
+      <c r="N33">
+        <v>1.002063969473684</v>
+      </c>
+      <c r="O33">
+        <v>1.002385029824561</v>
+      </c>
+      <c r="P33">
+        <v>1.00091731754386</v>
+      </c>
+      <c r="Q33">
+        <v>1.00091731754386</v>
+      </c>
+      <c r="R33">
+        <v>1.000343991578947</v>
+      </c>
+      <c r="S33">
+        <v>1.000343991578947</v>
+      </c>
+      <c r="T33">
+        <v>1.000122305877193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="D34">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="E34">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="F34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="G34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="H34">
+        <v>0.9993887473684213</v>
+      </c>
+      <c r="I34">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="J34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="K34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="L34">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="M34">
+        <v>0.9995832292105262</v>
+      </c>
+      <c r="N34">
+        <v>0.9995832292105262</v>
+      </c>
+      <c r="O34">
+        <v>0.9995184019298247</v>
+      </c>
+      <c r="P34">
+        <v>0.9998147642105262</v>
+      </c>
+      <c r="Q34">
+        <v>0.9998147642105262</v>
+      </c>
+      <c r="R34">
+        <v>0.9999305317105261</v>
+      </c>
+      <c r="S34">
+        <v>0.9999305317105261</v>
+      </c>
+      <c r="T34">
+        <v>0.9999752987719298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.000573429002178</v>
+      </c>
+      <c r="D35">
+        <v>0.9977062349834561</v>
+      </c>
+      <c r="E35">
+        <v>0.9977062349834561</v>
+      </c>
+      <c r="F35">
+        <v>1.000573429002178</v>
+      </c>
+      <c r="G35">
+        <v>1.000573429002178</v>
+      </c>
+      <c r="H35">
+        <v>0.998738432672245</v>
+      </c>
+      <c r="I35">
+        <v>1.001529176207897</v>
+      </c>
+      <c r="J35">
+        <v>1.000573429002178</v>
+      </c>
+      <c r="K35">
+        <v>1.000573429002178</v>
+      </c>
+      <c r="L35">
+        <v>1.000573429002178</v>
+      </c>
+      <c r="M35">
+        <v>0.9991398319928169</v>
+      </c>
+      <c r="N35">
+        <v>0.9991398319928169</v>
+      </c>
+      <c r="O35">
+        <v>0.999006032219293</v>
+      </c>
+      <c r="P35">
+        <v>0.9996176976626039</v>
+      </c>
+      <c r="Q35">
+        <v>0.9996176976626039</v>
+      </c>
+      <c r="R35">
+        <v>0.9998566304974974</v>
+      </c>
+      <c r="S35">
+        <v>0.9998566304974974</v>
+      </c>
+      <c r="T35">
+        <v>0.9999490218116885</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="D36">
+        <v>0.9999997290498686</v>
+      </c>
+      <c r="E36">
+        <v>0.9999997290498686</v>
+      </c>
+      <c r="F36">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="G36">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="H36">
+        <v>0.9999998524162285</v>
+      </c>
+      <c r="I36">
+        <v>1.000000179893585</v>
+      </c>
+      <c r="J36">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="K36">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="L36">
+        <v>1.000000068692146</v>
+      </c>
+      <c r="M36">
+        <v>0.9999998988710074</v>
+      </c>
+      <c r="N36">
+        <v>0.9999998988710074</v>
+      </c>
+      <c r="O36">
+        <v>0.999999883386081</v>
+      </c>
+      <c r="P36">
+        <v>0.9999999554780535</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999999554780535</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999837815767</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999837815767</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999945726867</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="D37">
+        <v>0.9999942836438702</v>
+      </c>
+      <c r="E37">
+        <v>0.9999942836438702</v>
+      </c>
+      <c r="F37">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="G37">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="H37">
+        <v>0.9999968572775617</v>
+      </c>
+      <c r="I37">
+        <v>1.000003810149395</v>
+      </c>
+      <c r="J37">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="K37">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="L37">
+        <v>1.000001430164178</v>
+      </c>
+      <c r="M37">
+        <v>0.9999978569040242</v>
+      </c>
+      <c r="N37">
+        <v>0.9999978569040242</v>
+      </c>
+      <c r="O37">
+        <v>0.9999975236952033</v>
+      </c>
+      <c r="P37">
+        <v>0.9999990479907422</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999990479907422</v>
+      </c>
+      <c r="R37">
+        <v>0.9999996435341012</v>
+      </c>
+      <c r="S37">
+        <v>0.9999996435341012</v>
+      </c>
+      <c r="T37">
+        <v>0.9999998735938936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="D38">
+        <v>0.9999798779190785</v>
+      </c>
+      <c r="E38">
+        <v>0.9999798779190785</v>
+      </c>
+      <c r="F38">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="G38">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="H38">
+        <v>0.9999889312744372</v>
+      </c>
+      <c r="I38">
+        <v>1.000013417029376</v>
+      </c>
+      <c r="J38">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="K38">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="L38">
+        <v>1.000005031290864</v>
+      </c>
+      <c r="M38">
+        <v>0.9999924546049713</v>
+      </c>
+      <c r="N38">
+        <v>0.9999924546049713</v>
+      </c>
+      <c r="O38">
+        <v>0.9999912801614599</v>
+      </c>
+      <c r="P38">
+        <v>0.9999966468336022</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999966468336022</v>
+      </c>
+      <c r="R38">
+        <v>0.9999987429479178</v>
+      </c>
+      <c r="S38">
+        <v>0.9999987429479178</v>
+      </c>
+      <c r="T38">
+        <v>0.9999995533492473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000011783923545</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9999528579123589</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9999528579123589</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.000011783923545</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000011783923545</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9999740770754297</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000031426453913</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000011783923545</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000011783923545</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000011783923545</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.999982320917952</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.999982320917952</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9999795729704446</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9999921419198164</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9999921419198164</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999970524207487</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999970524207487</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999989522020561</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.000092748055137</v>
+      </c>
+      <c r="D40">
+        <v>0.999629002426507</v>
+      </c>
+      <c r="E40">
+        <v>0.999629002426507</v>
+      </c>
+      <c r="F40">
+        <v>1.000092748055137</v>
+      </c>
+      <c r="G40">
+        <v>1.000092748055137</v>
+      </c>
+      <c r="H40">
+        <v>0.9997959518646408</v>
+      </c>
+      <c r="I40">
+        <v>1.000247329535183</v>
+      </c>
+      <c r="J40">
+        <v>1.000092748055137</v>
+      </c>
+      <c r="K40">
+        <v>1.000092748055137</v>
+      </c>
+      <c r="L40">
+        <v>1.000092748055137</v>
+      </c>
+      <c r="M40">
+        <v>0.999860875240822</v>
+      </c>
+      <c r="N40">
+        <v>0.999860875240822</v>
+      </c>
+      <c r="O40">
+        <v>0.9998392341154282</v>
+      </c>
+      <c r="P40">
+        <v>0.9999381661789269</v>
+      </c>
+      <c r="Q40">
+        <v>0.9999381661789269</v>
+      </c>
+      <c r="R40">
+        <v>0.9999768116479795</v>
+      </c>
+      <c r="S40">
+        <v>0.9999768116479795</v>
+      </c>
+      <c r="T40">
+        <v>0.9999917546652902</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000452618676958</v>
+      </c>
+      <c r="D41">
+        <v>0.9981895315339689</v>
+      </c>
+      <c r="E41">
+        <v>0.9981895315339689</v>
+      </c>
+      <c r="F41">
+        <v>1.000452618676958</v>
+      </c>
+      <c r="G41">
+        <v>1.000452618676958</v>
+      </c>
+      <c r="H41">
+        <v>0.9990042427568586</v>
+      </c>
+      <c r="I41">
+        <v>1.001206977771434</v>
+      </c>
+      <c r="J41">
+        <v>1.000452618676958</v>
+      </c>
+      <c r="K41">
+        <v>1.000452618676958</v>
+      </c>
+      <c r="L41">
+        <v>1.000452618676958</v>
+      </c>
+      <c r="M41">
+        <v>0.9993210751054635</v>
+      </c>
+      <c r="N41">
+        <v>0.9993210751054635</v>
+      </c>
+      <c r="O41">
+        <v>0.9992154643225953</v>
+      </c>
+      <c r="P41">
+        <v>0.9996982562959618</v>
+      </c>
+      <c r="Q41">
+        <v>0.9996982562959618</v>
+      </c>
+      <c r="R41">
+        <v>0.9998868468912108</v>
+      </c>
+      <c r="S41">
+        <v>0.9998868468912108</v>
+      </c>
+      <c r="T41">
+        <v>0.9999597680155227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.000631330899744</v>
+      </c>
+      <c r="D42">
+        <v>0.9974746709298964</v>
+      </c>
+      <c r="E42">
+        <v>0.9974746709298964</v>
+      </c>
+      <c r="F42">
+        <v>1.000631330899744</v>
+      </c>
+      <c r="G42">
+        <v>1.000631330899744</v>
+      </c>
+      <c r="H42">
+        <v>0.9986110705408862</v>
+      </c>
+      <c r="I42">
+        <v>1.001683553238691</v>
+      </c>
+      <c r="J42">
+        <v>1.000631330899744</v>
+      </c>
+      <c r="K42">
+        <v>1.000631330899744</v>
+      </c>
+      <c r="L42">
+        <v>1.000631330899744</v>
+      </c>
+      <c r="M42">
+        <v>0.9990530009148202</v>
+      </c>
+      <c r="N42">
+        <v>0.9990530009148202</v>
+      </c>
+      <c r="O42">
+        <v>0.9989056907901755</v>
+      </c>
+      <c r="P42">
+        <v>0.9995791109097948</v>
+      </c>
+      <c r="Q42">
+        <v>0.9995791109097948</v>
+      </c>
+      <c r="R42">
+        <v>0.999842165907282</v>
+      </c>
+      <c r="S42">
+        <v>0.999842165907282</v>
+      </c>
+      <c r="T42">
+        <v>0.9999438812347842</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000016338583803</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="D3">
-        <v>0.9999346472413927</v>
+        <v>0.9999992693106465</v>
       </c>
       <c r="E3">
-        <v>1.000016338583803</v>
+        <v>0.9999992693106465</v>
       </c>
       <c r="F3">
-        <v>1.000016338583803</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="G3">
-        <v>1.000043567992868</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="H3">
-        <v>0.999964057581783</v>
+        <v>0.999999599493442</v>
       </c>
       <c r="I3">
-        <v>1.000016338583803</v>
+        <v>1.000000486009434</v>
       </c>
       <c r="J3">
-        <v>0.9999346472413927</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="K3">
-        <v>1.000016338583803</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="L3">
-        <v>1.000016338583803</v>
+        <v>1.000000183625916</v>
       </c>
       <c r="M3">
-        <v>0.9999754929125977</v>
+        <v>0.9999997264682813</v>
       </c>
       <c r="N3">
-        <v>0.9999754929125977</v>
+        <v>0.9999997264682813</v>
       </c>
       <c r="O3">
-        <v>0.9999716811356594</v>
+        <v>0.9999996841433348</v>
       </c>
       <c r="P3">
-        <v>0.9999891081363327</v>
+        <v>0.9999998788541595</v>
       </c>
       <c r="Q3">
-        <v>0.9999891081363327</v>
+        <v>0.9999998788541595</v>
       </c>
       <c r="R3">
-        <v>0.9999959157482001</v>
+        <v>0.9999999550470986</v>
       </c>
       <c r="S3">
-        <v>0.9999959157482001</v>
+        <v>0.9999999550470986</v>
       </c>
       <c r="T3">
-        <v>0.9999985480945752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999999842818784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000031540050173</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="D4">
-        <v>0.9998738372178897</v>
+        <v>0.999629002426507</v>
       </c>
       <c r="E4">
-        <v>1.000031540050173</v>
+        <v>0.999629002426507</v>
       </c>
       <c r="F4">
-        <v>1.000031540050173</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="G4">
-        <v>1.000084107857689</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="H4">
-        <v>0.9999306129898524</v>
+        <v>0.9997959518646408</v>
       </c>
       <c r="I4">
-        <v>1.000031540050173</v>
+        <v>1.000247329535183</v>
       </c>
       <c r="J4">
-        <v>0.9998738372178897</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="K4">
-        <v>1.000031540050173</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="L4">
-        <v>1.000031540050173</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="M4">
-        <v>0.9999526886340313</v>
+        <v>0.999860875240822</v>
       </c>
       <c r="N4">
-        <v>0.9999526886340313</v>
+        <v>0.999860875240822</v>
       </c>
       <c r="O4">
-        <v>0.9999453300859716</v>
+        <v>0.9998392341154282</v>
       </c>
       <c r="P4">
-        <v>0.9999789724394118</v>
+        <v>0.9999381661789269</v>
       </c>
       <c r="Q4">
-        <v>0.9999789724394118</v>
+        <v>0.9999381661789269</v>
       </c>
       <c r="R4">
-        <v>0.9999921143421021</v>
+        <v>0.9999768116479795</v>
       </c>
       <c r="S4">
-        <v>0.9999921143421021</v>
+        <v>0.9999768116479795</v>
       </c>
       <c r="T4">
-        <v>0.9999971963693252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999917546652902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000060438927275</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="D5">
-        <v>0.9997582243656344</v>
+        <v>0.9993103309798268</v>
       </c>
       <c r="E5">
-        <v>1.000060438927275</v>
+        <v>0.9993103309798268</v>
       </c>
       <c r="F5">
-        <v>1.000060438927275</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="G5">
-        <v>1.000161185399341</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="H5">
-        <v>0.9998670286552583</v>
+        <v>0.9996206838400572</v>
       </c>
       <c r="I5">
-        <v>1.000060438927275</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="J5">
-        <v>0.9997582243656344</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="K5">
-        <v>1.000060438927275</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="L5">
-        <v>1.000060438927275</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="M5">
-        <v>0.9999093316464546</v>
+        <v>0.9997413738364544</v>
       </c>
       <c r="N5">
-        <v>0.9999093316464546</v>
+        <v>0.9997413738364544</v>
       </c>
       <c r="O5">
-        <v>0.9998952306493892</v>
+        <v>0.9997011438376554</v>
       </c>
       <c r="P5">
-        <v>0.9999597007400612</v>
+        <v>0.9998850547886636</v>
       </c>
       <c r="Q5">
-        <v>0.9999597007400612</v>
+        <v>0.9998850547886636</v>
       </c>
       <c r="R5">
-        <v>0.9999848852868647</v>
+        <v>0.9999568952647682</v>
       </c>
       <c r="S5">
-        <v>0.9999848852868647</v>
+        <v>0.9999568952647682</v>
       </c>
       <c r="T5">
-        <v>0.9999946258670095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9999846738772806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000088647805852</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="D6">
-        <v>0.9996453958735342</v>
+        <v>0.9977062349834561</v>
       </c>
       <c r="E6">
-        <v>1.000088647805852</v>
+        <v>0.9977062349834561</v>
       </c>
       <c r="F6">
-        <v>1.000088647805852</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="G6">
-        <v>1.000236399566401</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="H6">
-        <v>0.9998049685953444</v>
+        <v>0.998738432672245</v>
       </c>
       <c r="I6">
-        <v>1.000088647805852</v>
+        <v>1.001529176207897</v>
       </c>
       <c r="J6">
-        <v>0.9996453958735342</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="K6">
-        <v>1.000088647805852</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="L6">
-        <v>1.000088647805852</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="M6">
-        <v>0.999867021839693</v>
+        <v>0.9991398319928169</v>
       </c>
       <c r="N6">
-        <v>0.999867021839693</v>
+        <v>0.9991398319928169</v>
       </c>
       <c r="O6">
-        <v>0.9998463374249101</v>
+        <v>0.999006032219293</v>
       </c>
       <c r="P6">
-        <v>0.9999408971617459</v>
+        <v>0.9996176976626039</v>
       </c>
       <c r="Q6">
-        <v>0.9999408971617459</v>
+        <v>0.9996176976626039</v>
       </c>
       <c r="R6">
-        <v>0.9999778348227724</v>
+        <v>0.9998566304974974</v>
       </c>
       <c r="S6">
-        <v>0.9999778348227724</v>
+        <v>0.9998566304974974</v>
       </c>
       <c r="T6">
-        <v>0.9999921179088059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9999490218116885</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000000486165669</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="D7">
-        <v>0.9999980594444019</v>
+        <v>0.9999239922974491</v>
       </c>
       <c r="E7">
-        <v>1.000000486165669</v>
+        <v>0.9999239922974491</v>
       </c>
       <c r="F7">
-        <v>1.000000486165669</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="G7">
-        <v>1.000001292768302</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="H7">
-        <v>0.9999989341772036</v>
+        <v>0.999958197477169</v>
       </c>
       <c r="I7">
-        <v>1.000000486165669</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="J7">
-        <v>0.9999980594444019</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="K7">
-        <v>1.000000486165669</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="L7">
-        <v>1.000000486165669</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="M7">
-        <v>0.9999992728050355</v>
+        <v>0.9999714975026923</v>
       </c>
       <c r="N7">
-        <v>0.9999992728050355</v>
+        <v>0.9999714975026923</v>
       </c>
       <c r="O7">
-        <v>0.9999991599290916</v>
+        <v>0.9999670641608512</v>
       </c>
       <c r="P7">
-        <v>0.9999996772585801</v>
+        <v>0.9999873325711067</v>
       </c>
       <c r="Q7">
-        <v>0.9999996772585801</v>
+        <v>0.9999873325711067</v>
       </c>
       <c r="R7">
-        <v>0.9999998794853524</v>
+        <v>0.999995250105314</v>
       </c>
       <c r="S7">
-        <v>0.9999998794853524</v>
+        <v>0.999995250105314</v>
       </c>
       <c r="T7">
-        <v>0.9999999574811524</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999983115356402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000000183625916</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="D8">
-        <v>0.9999992693106468</v>
+        <v>0.9999942836438702</v>
       </c>
       <c r="E8">
-        <v>1.000000183625916</v>
+        <v>0.9999942836438702</v>
       </c>
       <c r="F8">
-        <v>1.000000183625916</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="G8">
-        <v>1.000000486009434</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="H8">
-        <v>0.999999599493442</v>
+        <v>0.9999968572775617</v>
       </c>
       <c r="I8">
-        <v>1.000000183625916</v>
+        <v>1.000003810149395</v>
       </c>
       <c r="J8">
-        <v>0.9999992693106468</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="K8">
-        <v>1.000000183625916</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="L8">
-        <v>1.000000183625916</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="M8">
-        <v>0.9999997264682813</v>
+        <v>0.9999978569040242</v>
       </c>
       <c r="N8">
-        <v>0.9999997264682813</v>
+        <v>0.9999978569040242</v>
       </c>
       <c r="O8">
-        <v>0.9999996841433348</v>
+        <v>0.9999975236952033</v>
       </c>
       <c r="P8">
-        <v>0.9999998788541594</v>
+        <v>0.9999990479907422</v>
       </c>
       <c r="Q8">
-        <v>0.9999998788541594</v>
+        <v>0.9999990479907422</v>
       </c>
       <c r="R8">
-        <v>0.9999999550470985</v>
+        <v>0.9999996435341012</v>
       </c>
       <c r="S8">
-        <v>0.9999999550470985</v>
+        <v>0.9999996435341012</v>
       </c>
       <c r="T8">
-        <v>0.9999999842818784</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999998735938936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999983370882055</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="D9">
-        <v>1.00000665505566</v>
+        <v>0.9998738372178897</v>
       </c>
       <c r="E9">
-        <v>0.9999983370882055</v>
+        <v>0.9998738372178897</v>
       </c>
       <c r="F9">
-        <v>0.9999983370882055</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="G9">
-        <v>0.9999955621507089</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="H9">
-        <v>1.000003661595367</v>
+        <v>0.9999306129898526</v>
       </c>
       <c r="I9">
-        <v>0.9999983370882055</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="J9">
-        <v>1.00000665505566</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="K9">
-        <v>0.9999983370882055</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="L9">
-        <v>0.9999983370882055</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="M9">
-        <v>1.000002496071933</v>
+        <v>0.9999526886340313</v>
       </c>
       <c r="N9">
-        <v>1.000002496071933</v>
+        <v>0.9999526886340313</v>
       </c>
       <c r="O9">
-        <v>1.000002884579744</v>
+        <v>0.9999453300859718</v>
       </c>
       <c r="P9">
-        <v>1.000001109744024</v>
+        <v>0.9999789724394118</v>
       </c>
       <c r="Q9">
-        <v>1.000001109744024</v>
+        <v>0.9999789724394118</v>
       </c>
       <c r="R9">
-        <v>1.000000416580069</v>
+        <v>0.9999921143421021</v>
       </c>
       <c r="S9">
-        <v>1.000000416580069</v>
+        <v>0.9999921143421021</v>
       </c>
       <c r="T9">
-        <v>1.000000148344392</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999971963693252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999981533096574</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="D10">
-        <v>1.000007393278709</v>
+        <v>0.9976719766164388</v>
       </c>
       <c r="E10">
-        <v>0.9999981533096574</v>
+        <v>0.9976719766164388</v>
       </c>
       <c r="F10">
-        <v>0.9999981533096574</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="G10">
-        <v>0.9999950707193996</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="H10">
-        <v>1.000004068484211</v>
+        <v>0.9987195908037128</v>
       </c>
       <c r="I10">
-        <v>0.9999981533096574</v>
+        <v>1.001552014607612</v>
       </c>
       <c r="J10">
-        <v>1.000007393278709</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="K10">
-        <v>0.9999981533096574</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="L10">
-        <v>0.9999981533096574</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="M10">
-        <v>1.000002773294183</v>
+        <v>0.999126985194591</v>
       </c>
       <c r="N10">
-        <v>1.000002773294183</v>
+        <v>0.999126985194591</v>
       </c>
       <c r="O10">
-        <v>1.000003205024192</v>
+        <v>0.9989911870642981</v>
       </c>
       <c r="P10">
-        <v>1.000001233299341</v>
+        <v>0.999611988053975</v>
       </c>
       <c r="Q10">
-        <v>1.000001233299341</v>
+        <v>0.999611988053975</v>
       </c>
       <c r="R10">
-        <v>1.00000046330192</v>
+        <v>0.9998544894836671</v>
       </c>
       <c r="S10">
-        <v>1.00000046330192</v>
+        <v>0.9998544894836671</v>
       </c>
       <c r="T10">
-        <v>1.000000165401882</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9999482605576656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999925601641226</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="D11">
-        <v>1.000029761041818</v>
+        <v>0.9974985628805104</v>
       </c>
       <c r="E11">
-        <v>0.9999925601641226</v>
+        <v>0.9974985628805104</v>
       </c>
       <c r="F11">
-        <v>0.9999925601641226</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="G11">
-        <v>0.9999801582747998</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="H11">
-        <v>1.000016371160507</v>
+        <v>0.9986242092285254</v>
       </c>
       <c r="I11">
-        <v>0.9999925601641226</v>
+        <v>1.001667622589512</v>
       </c>
       <c r="J11">
-        <v>1.000029761041818</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="K11">
-        <v>0.9999925601641226</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="L11">
-        <v>0.9999925601641226</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="M11">
-        <v>1.00001116060297</v>
+        <v>0.9990619605865808</v>
       </c>
       <c r="N11">
-        <v>1.00001116060297</v>
+        <v>0.9990619605865808</v>
       </c>
       <c r="O11">
-        <v>1.000012897455482</v>
+        <v>0.998916043467229</v>
       </c>
       <c r="P11">
-        <v>1.000004960456688</v>
+        <v>0.9995830931552709</v>
       </c>
       <c r="Q11">
-        <v>1.000004960456688</v>
+        <v>0.9995830931552709</v>
       </c>
       <c r="R11">
-        <v>1.000001860383547</v>
+        <v>0.9998436594396161</v>
       </c>
       <c r="S11">
-        <v>1.000001860383547</v>
+        <v>0.9998436594396161</v>
       </c>
       <c r="T11">
-        <v>1.000000661828249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9999444115960835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000028097300705</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="D12">
-        <v>0.9998876122407556</v>
+        <v>0.9992177278526325</v>
       </c>
       <c r="E12">
-        <v>1.000028097300705</v>
+        <v>0.9992177278526325</v>
       </c>
       <c r="F12">
-        <v>1.000028097300705</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="G12">
-        <v>1.000074918695383</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="H12">
-        <v>0.9999381882324063</v>
+        <v>0.9995697527473677</v>
       </c>
       <c r="I12">
-        <v>1.000028097300705</v>
+        <v>1.000521513515791</v>
       </c>
       <c r="J12">
-        <v>0.9998876122407556</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="K12">
-        <v>1.000028097300705</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="L12">
-        <v>1.000028097300705</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="M12">
-        <v>0.9999578547707304</v>
+        <v>0.9997066478842112</v>
       </c>
       <c r="N12">
-        <v>0.9999578547707304</v>
+        <v>0.9997066478842112</v>
       </c>
       <c r="O12">
-        <v>0.9999512992579557</v>
+        <v>0.99966101617193</v>
       </c>
       <c r="P12">
-        <v>0.9999812689473887</v>
+        <v>0.9998696212280708</v>
       </c>
       <c r="Q12">
-        <v>0.9999812689473887</v>
+        <v>0.9998696212280708</v>
       </c>
       <c r="R12">
-        <v>0.9999929760357178</v>
+        <v>0.9999511079000005</v>
       </c>
       <c r="S12">
-        <v>0.9999929760357178</v>
+        <v>0.9999511079000005</v>
       </c>
       <c r="T12">
-        <v>0.9999975018451103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9999826163105268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000007626290974</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="D13">
-        <v>0.9999695108552538</v>
+        <v>1.000457854300378</v>
       </c>
       <c r="E13">
-        <v>1.000007626290974</v>
+        <v>1.000457854300378</v>
       </c>
       <c r="F13">
-        <v>1.000007626290974</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="G13">
-        <v>1.000020322947069</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="H13">
-        <v>0.9999832304387672</v>
+        <v>1.000251822497842</v>
       </c>
       <c r="I13">
-        <v>1.000007626290974</v>
+        <v>0.9996947631889451</v>
       </c>
       <c r="J13">
-        <v>0.9999695108552538</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="K13">
-        <v>1.000007626290974</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="L13">
-        <v>1.000007626290974</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="M13">
-        <v>0.9999885685731137</v>
+        <v>1.000171696612572</v>
       </c>
       <c r="N13">
-        <v>0.9999885685731137</v>
+        <v>1.000171696612572</v>
       </c>
       <c r="O13">
-        <v>0.9999867891949982</v>
+        <v>1.000198405240995</v>
       </c>
       <c r="P13">
-        <v>0.9999949211457336</v>
+        <v>1.000076310716636</v>
       </c>
       <c r="Q13">
-        <v>0.9999949211457336</v>
+        <v>1.000076310716636</v>
       </c>
       <c r="R13">
-        <v>0.9999980974320437</v>
+        <v>1.000028617768669</v>
       </c>
       <c r="S13">
-        <v>0.9999980974320437</v>
+        <v>1.000028617768669</v>
       </c>
       <c r="T13">
-        <v>0.999999323852335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.00001017612691</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9973269266129244</v>
+        <v>1.0010055</v>
       </c>
       <c r="D14">
-        <v>1.010692306143848</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E14">
-        <v>0.9973269266129244</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="F14">
-        <v>0.9973269266129244</v>
+        <v>1.0010055</v>
       </c>
       <c r="G14">
-        <v>0.9928718018038819</v>
+        <v>1.0010055</v>
       </c>
       <c r="H14">
-        <v>1.005880777237486</v>
+        <v>0.9977878500000004</v>
       </c>
       <c r="I14">
-        <v>0.9973269266129244</v>
+        <v>1.0026814</v>
       </c>
       <c r="J14">
-        <v>1.010692306143848</v>
+        <v>1.0010055</v>
       </c>
       <c r="K14">
-        <v>0.9973269266129244</v>
+        <v>1.0010055</v>
       </c>
       <c r="L14">
-        <v>0.9973269266129244</v>
+        <v>1.0010055</v>
       </c>
       <c r="M14">
-        <v>1.004009616378386</v>
+        <v>0.9984917</v>
       </c>
       <c r="N14">
-        <v>1.004009616378386</v>
+        <v>0.9984917</v>
       </c>
       <c r="O14">
-        <v>1.004633336664753</v>
+        <v>0.9982570833333334</v>
       </c>
       <c r="P14">
-        <v>1.001782053123232</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q14">
-        <v>1.001782053123232</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R14">
-        <v>1.000668271495655</v>
+        <v>0.9997486</v>
       </c>
       <c r="S14">
-        <v>1.000668271495655</v>
+        <v>0.9997486</v>
       </c>
       <c r="T14">
-        <v>1.000237610837331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9999106083333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9992875286153806</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D15">
-        <v>1.00284988332352</v>
+        <v>1.0160884</v>
       </c>
       <c r="E15">
-        <v>0.9992875286153806</v>
+        <v>1.0160884</v>
       </c>
       <c r="F15">
-        <v>0.9992875286153806</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G15">
-        <v>0.9981000766135258</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H15">
-        <v>1.001567436407662</v>
+        <v>1.0088486</v>
       </c>
       <c r="I15">
-        <v>0.9992875286153806</v>
+        <v>0.98927441</v>
       </c>
       <c r="J15">
-        <v>1.00284988332352</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="K15">
-        <v>0.9992875286153806</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="L15">
-        <v>0.9992875286153806</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="M15">
-        <v>1.001068705969451</v>
+        <v>1.00603315</v>
       </c>
       <c r="N15">
-        <v>1.001068705969451</v>
+        <v>1.00603315</v>
       </c>
       <c r="O15">
-        <v>1.001234949448854</v>
+        <v>1.006971633333333</v>
       </c>
       <c r="P15">
-        <v>1.000474980184761</v>
+        <v>1.0026814</v>
       </c>
       <c r="Q15">
-        <v>1.000474980184761</v>
+        <v>1.0026814</v>
       </c>
       <c r="R15">
-        <v>1.000178117292416</v>
+        <v>1.001005525</v>
       </c>
       <c r="S15">
-        <v>1.000178117292416</v>
+        <v>1.001005525</v>
       </c>
       <c r="T15">
-        <v>1.000063330365142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.000357518333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000068692146</v>
+        <v>1.0010055</v>
       </c>
       <c r="D16">
-        <v>0.9999997290498686</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E16">
-        <v>1.000000068692146</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="F16">
-        <v>1.000000068692146</v>
+        <v>1.0010055</v>
       </c>
       <c r="G16">
-        <v>1.000000179893585</v>
+        <v>1.0010055</v>
       </c>
       <c r="H16">
-        <v>0.9999998524162285</v>
+        <v>0.99778785</v>
       </c>
       <c r="I16">
-        <v>1.000000068692146</v>
+        <v>1.0026814</v>
       </c>
       <c r="J16">
-        <v>0.9999997290498686</v>
+        <v>1.0010055</v>
       </c>
       <c r="K16">
-        <v>1.000000068692146</v>
+        <v>1.0010055</v>
       </c>
       <c r="L16">
-        <v>1.000000068692146</v>
+        <v>1.0010055</v>
       </c>
       <c r="M16">
-        <v>0.9999998988710074</v>
+        <v>0.9984917</v>
       </c>
       <c r="N16">
-        <v>0.9999998988710074</v>
+        <v>0.9984917</v>
       </c>
       <c r="O16">
-        <v>0.999999883386081</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P16">
-        <v>0.9999999554780535</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q16">
-        <v>0.9999999554780535</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R16">
-        <v>0.9999999837815767</v>
+        <v>0.9997486</v>
       </c>
       <c r="S16">
-        <v>0.9999999837815767</v>
+        <v>0.9997486</v>
       </c>
       <c r="T16">
-        <v>0.9999999945726867</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000001430164178</v>
+        <v>0.99723481</v>
       </c>
       <c r="D17">
-        <v>0.9999942836438702</v>
+        <v>1.0110608</v>
       </c>
       <c r="E17">
-        <v>1.000001430164178</v>
+        <v>1.0110608</v>
       </c>
       <c r="F17">
-        <v>1.000001430164178</v>
+        <v>0.99723481</v>
       </c>
       <c r="G17">
-        <v>1.000003810149395</v>
+        <v>0.99723481</v>
       </c>
       <c r="H17">
-        <v>0.9999968572775617</v>
+        <v>1.0060834</v>
       </c>
       <c r="I17">
-        <v>1.000001430164178</v>
+        <v>0.99262616</v>
       </c>
       <c r="J17">
-        <v>0.9999942836438702</v>
+        <v>0.99723481</v>
       </c>
       <c r="K17">
-        <v>1.000001430164178</v>
+        <v>0.99723481</v>
       </c>
       <c r="L17">
-        <v>1.000001430164178</v>
+        <v>0.99723481</v>
       </c>
       <c r="M17">
-        <v>0.9999978569040242</v>
+        <v>1.004147805</v>
       </c>
       <c r="N17">
-        <v>0.9999978569040242</v>
+        <v>1.004147805</v>
       </c>
       <c r="O17">
-        <v>0.9999975236952033</v>
+        <v>1.004793003333333</v>
       </c>
       <c r="P17">
-        <v>0.9999990479907422</v>
+        <v>1.001843473333333</v>
       </c>
       <c r="Q17">
-        <v>0.9999990479907422</v>
+        <v>1.001843473333333</v>
       </c>
       <c r="R17">
-        <v>0.9999996435341012</v>
+        <v>1.0006913075</v>
       </c>
       <c r="S17">
-        <v>0.9999996435341012</v>
+        <v>1.0006913075</v>
       </c>
       <c r="T17">
-        <v>0.9999998735938936</v>
+        <v>1.000245798333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000005031290864</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="D18">
-        <v>0.9999798779190787</v>
+        <v>0.9987327567123285</v>
       </c>
       <c r="E18">
-        <v>1.000005031290864</v>
+        <v>0.9987327567123285</v>
       </c>
       <c r="F18">
-        <v>1.000005031290864</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="G18">
-        <v>1.000013417029376</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="H18">
-        <v>0.9999889312744372</v>
+        <v>0.9993030205479453</v>
       </c>
       <c r="I18">
-        <v>1.000005031290864</v>
+        <v>1.00084483</v>
       </c>
       <c r="J18">
-        <v>0.9999798779190787</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="K18">
-        <v>1.000005031290864</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="L18">
-        <v>1.000005031290864</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="M18">
-        <v>0.9999924546049714</v>
+        <v>0.9995247790410959</v>
       </c>
       <c r="N18">
-        <v>0.9999924546049714</v>
+        <v>0.9995247790410959</v>
       </c>
       <c r="O18">
-        <v>0.99999128016146</v>
+        <v>0.9994508595433791</v>
       </c>
       <c r="P18">
-        <v>0.9999966468336025</v>
+        <v>0.9997887864840184</v>
       </c>
       <c r="Q18">
-        <v>0.9999966468336025</v>
+        <v>0.9997887864840184</v>
       </c>
       <c r="R18">
-        <v>0.9999987429479178</v>
+        <v>0.9999207902054796</v>
       </c>
       <c r="S18">
-        <v>0.9999987429479178</v>
+        <v>0.9999207902054796</v>
       </c>
       <c r="T18">
-        <v>0.9999995533492475</v>
+        <v>0.9999718352283108</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000011783923545</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="D19">
-        <v>0.999952857912359</v>
+        <v>1.005503925263158</v>
       </c>
       <c r="E19">
-        <v>1.000011783923545</v>
+        <v>1.005503925263158</v>
       </c>
       <c r="F19">
-        <v>1.000011783923545</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="G19">
-        <v>1.000031426453913</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="H19">
-        <v>0.9999740770754297</v>
+        <v>1.003027150526316</v>
       </c>
       <c r="I19">
-        <v>1.000011783923545</v>
+        <v>0.9963307184210525</v>
       </c>
       <c r="J19">
-        <v>0.999952857912359</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="K19">
-        <v>1.000011783923545</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="L19">
-        <v>1.000011783923545</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="M19">
-        <v>0.9999823209179521</v>
+        <v>1.002063969473684</v>
       </c>
       <c r="N19">
-        <v>0.9999823209179521</v>
+        <v>1.002063969473684</v>
       </c>
       <c r="O19">
-        <v>0.9999795729704447</v>
+        <v>1.002385029824561</v>
       </c>
       <c r="P19">
-        <v>0.9999921419198164</v>
+        <v>1.00091731754386</v>
       </c>
       <c r="Q19">
-        <v>0.9999921419198164</v>
+        <v>1.00091731754386</v>
       </c>
       <c r="R19">
-        <v>0.9999970524207487</v>
+        <v>1.000343991578947</v>
       </c>
       <c r="S19">
-        <v>0.9999970524207487</v>
+        <v>1.000343991578947</v>
       </c>
       <c r="T19">
-        <v>0.9999989522020561</v>
+        <v>1.000122305877193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="D20">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="E20">
+        <v>0.9988886242105264</v>
+      </c>
+      <c r="F20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="G20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="H20">
+        <v>0.9993887473684213</v>
+      </c>
+      <c r="I20">
+        <v>1.000740918421053</v>
+      </c>
+      <c r="J20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="K20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="L20">
+        <v>1.000277834210526</v>
+      </c>
+      <c r="M20">
+        <v>0.9995832292105262</v>
+      </c>
+      <c r="N20">
+        <v>0.9995832292105262</v>
+      </c>
+      <c r="O20">
+        <v>0.9995184019298247</v>
+      </c>
+      <c r="P20">
+        <v>0.9998147642105262</v>
+      </c>
+      <c r="Q20">
+        <v>0.9998147642105262</v>
+      </c>
+      <c r="R20">
+        <v>0.9999305317105261</v>
+      </c>
+      <c r="S20">
+        <v>0.9999305317105261</v>
+      </c>
+      <c r="T20">
+        <v>0.9999752987719298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="D21">
+        <v>1.010692306143848</v>
+      </c>
+      <c r="E21">
+        <v>1.010692306143848</v>
+      </c>
+      <c r="F21">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="G21">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="H21">
+        <v>1.005880777237486</v>
+      </c>
+      <c r="I21">
+        <v>0.9928718018038819</v>
+      </c>
+      <c r="J21">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="K21">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="L21">
+        <v>0.9973269266129244</v>
+      </c>
+      <c r="M21">
+        <v>1.004009616378386</v>
+      </c>
+      <c r="N21">
+        <v>1.004009616378386</v>
+      </c>
+      <c r="O21">
+        <v>1.004633336664753</v>
+      </c>
+      <c r="P21">
+        <v>1.001782053123232</v>
+      </c>
+      <c r="Q21">
+        <v>1.001782053123232</v>
+      </c>
+      <c r="R21">
+        <v>1.000668271495655</v>
+      </c>
+      <c r="S21">
+        <v>1.000668271495655</v>
+      </c>
+      <c r="T21">
+        <v>1.000237610837331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="D22">
+        <v>1.00284988332352</v>
+      </c>
+      <c r="E22">
+        <v>1.00284988332352</v>
+      </c>
+      <c r="F22">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="G22">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="H22">
+        <v>1.001567436407662</v>
+      </c>
+      <c r="I22">
+        <v>0.9981000766135258</v>
+      </c>
+      <c r="J22">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="K22">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="L22">
+        <v>0.9992875286153806</v>
+      </c>
+      <c r="M22">
+        <v>1.001068705969451</v>
+      </c>
+      <c r="N22">
+        <v>1.001068705969451</v>
+      </c>
+      <c r="O22">
+        <v>1.001234949448854</v>
+      </c>
+      <c r="P22">
+        <v>1.000474980184761</v>
+      </c>
+      <c r="Q22">
+        <v>1.000474980184761</v>
+      </c>
+      <c r="R22">
+        <v>1.000178117292416</v>
+      </c>
+      <c r="S22">
+        <v>1.000178117292416</v>
+      </c>
+      <c r="T22">
+        <v>1.000063330365142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="D23">
+        <v>0.9998876122407557</v>
+      </c>
+      <c r="E23">
+        <v>0.9998876122407557</v>
+      </c>
+      <c r="F23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="G23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="H23">
+        <v>0.9999381882324063</v>
+      </c>
+      <c r="I23">
+        <v>1.000074918695383</v>
+      </c>
+      <c r="J23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="K23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="L23">
+        <v>1.000028097300705</v>
+      </c>
+      <c r="M23">
+        <v>0.9999578547707304</v>
+      </c>
+      <c r="N23">
+        <v>0.9999578547707304</v>
+      </c>
+      <c r="O23">
+        <v>0.9999512992579557</v>
+      </c>
+      <c r="P23">
+        <v>0.9999812689473887</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999812689473887</v>
+      </c>
+      <c r="R23">
+        <v>0.9999929760357178</v>
+      </c>
+      <c r="S23">
+        <v>0.9999929760357178</v>
+      </c>
+      <c r="T23">
+        <v>0.9999975018451103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="D24">
+        <v>0.9999695108552538</v>
+      </c>
+      <c r="E24">
+        <v>0.9999695108552538</v>
+      </c>
+      <c r="F24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="G24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="H24">
+        <v>0.9999832304387672</v>
+      </c>
+      <c r="I24">
+        <v>1.000020322947068</v>
+      </c>
+      <c r="J24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="K24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="L24">
+        <v>1.000007626290974</v>
+      </c>
+      <c r="M24">
+        <v>0.9999885685731138</v>
+      </c>
+      <c r="N24">
+        <v>0.9999885685731138</v>
+      </c>
+      <c r="O24">
+        <v>0.9999867891949984</v>
+      </c>
+      <c r="P24">
+        <v>0.9999949211457339</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999949211457339</v>
+      </c>
+      <c r="R24">
+        <v>0.9999980974320438</v>
+      </c>
+      <c r="S24">
+        <v>0.9999980974320438</v>
+      </c>
+      <c r="T24">
+        <v>0.9999993238523351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.002089797253161</v>
+      </c>
+      <c r="D25">
+        <v>0.9916408172691078</v>
+      </c>
+      <c r="E25">
+        <v>0.9916408172691078</v>
+      </c>
+      <c r="F25">
+        <v>1.002089797253161</v>
+      </c>
+      <c r="G25">
+        <v>1.002089797253161</v>
+      </c>
+      <c r="H25">
+        <v>0.9954024506878769</v>
+      </c>
+      <c r="I25">
+        <v>1.005572790015801</v>
+      </c>
+      <c r="J25">
+        <v>1.002089797253161</v>
+      </c>
+      <c r="K25">
+        <v>1.002089797253161</v>
+      </c>
+      <c r="L25">
+        <v>1.002089797253161</v>
+      </c>
+      <c r="M25">
+        <v>0.9968653072611346</v>
+      </c>
+      <c r="N25">
+        <v>0.9968653072611346</v>
+      </c>
+      <c r="O25">
+        <v>0.9963776884033821</v>
+      </c>
+      <c r="P25">
+        <v>0.9986068039251436</v>
+      </c>
+      <c r="Q25">
+        <v>0.9986068039251436</v>
+      </c>
+      <c r="R25">
+        <v>0.9994775522571481</v>
+      </c>
+      <c r="S25">
+        <v>0.9994775522571481</v>
+      </c>
+      <c r="T25">
+        <v>0.9998142416220448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="D26">
+        <v>0.9977554399469895</v>
+      </c>
+      <c r="E26">
+        <v>0.9977554399469895</v>
+      </c>
+      <c r="F26">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="G26">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="H26">
+        <v>0.9987654929139986</v>
+      </c>
+      <c r="I26">
+        <v>1.001496364492529</v>
+      </c>
+      <c r="J26">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="K26">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="L26">
+        <v>1.000561146984666</v>
+      </c>
+      <c r="M26">
+        <v>0.9991582934658279</v>
+      </c>
+      <c r="N26">
+        <v>0.9991582934658279</v>
+      </c>
+      <c r="O26">
+        <v>0.9990273599485514</v>
+      </c>
+      <c r="P26">
+        <v>0.9996259113054405</v>
+      </c>
+      <c r="Q26">
+        <v>0.9996259113054405</v>
+      </c>
+      <c r="R26">
+        <v>0.9998597202252471</v>
+      </c>
+      <c r="S26">
+        <v>0.9998597202252471</v>
+      </c>
+      <c r="T26">
+        <v>0.9999501230512525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="D27">
+        <v>0.999760285765084</v>
+      </c>
+      <c r="E27">
+        <v>0.999760285765084</v>
+      </c>
+      <c r="F27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="G27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="H27">
+        <v>0.9998681530605864</v>
+      </c>
+      <c r="I27">
+        <v>1.000159821500623</v>
+      </c>
+      <c r="J27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="K27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="L27">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="M27">
+        <v>0.9999101034471697</v>
+      </c>
+      <c r="N27">
+        <v>0.9999101034471697</v>
+      </c>
+      <c r="O27">
+        <v>0.9998961199849753</v>
+      </c>
+      <c r="P27">
+        <v>0.9999600426745315</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999600426745315</v>
+      </c>
+      <c r="R27">
+        <v>0.9999850122882125</v>
+      </c>
+      <c r="S27">
+        <v>0.9999850122882125</v>
+      </c>
+      <c r="T27">
+        <v>0.9999946706190098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="D28">
+        <v>1.000241835665007</v>
+      </c>
+      <c r="E28">
+        <v>1.000241835665007</v>
+      </c>
+      <c r="F28">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="G28">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="H28">
+        <v>1.000133008379125</v>
+      </c>
+      <c r="I28">
+        <v>0.9998387793607175</v>
+      </c>
+      <c r="J28">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="K28">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="L28">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="M28">
+        <v>1.00009068813168</v>
+      </c>
+      <c r="N28">
+        <v>1.00009068813168</v>
+      </c>
+      <c r="O28">
+        <v>1.000104794880828</v>
+      </c>
+      <c r="P28">
+        <v>1.000040305620571</v>
+      </c>
+      <c r="Q28">
+        <v>1.000040305620571</v>
+      </c>
+      <c r="R28">
+        <v>1.000015114365017</v>
+      </c>
+      <c r="S28">
+        <v>1.000015114365017</v>
+      </c>
+      <c r="T28">
+        <v>1.000005374199985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9997370731149802</v>
+      </c>
+      <c r="D29">
+        <v>1.001051726665297</v>
+      </c>
+      <c r="E29">
+        <v>1.001051726665297</v>
+      </c>
+      <c r="F29">
+        <v>0.9997370731149802</v>
+      </c>
+      <c r="G29">
+        <v>0.9997370731149802</v>
+      </c>
+      <c r="H29">
+        <v>1.000578451925854</v>
+      </c>
+      <c r="I29">
+        <v>0.9992988581761483</v>
+      </c>
+      <c r="J29">
+        <v>0.9997370731149802</v>
+      </c>
+      <c r="K29">
+        <v>0.9997370731149802</v>
+      </c>
+      <c r="L29">
+        <v>0.9997370731149802</v>
+      </c>
+      <c r="M29">
+        <v>1.000394399890139</v>
+      </c>
+      <c r="N29">
+        <v>1.000394399890139</v>
+      </c>
+      <c r="O29">
+        <v>1.000455750568711</v>
+      </c>
+      <c r="P29">
+        <v>1.000175290965086</v>
+      </c>
+      <c r="Q29">
+        <v>1.000175290965086</v>
+      </c>
+      <c r="R29">
+        <v>1.00006573650256</v>
+      </c>
+      <c r="S29">
+        <v>1.00006573650256</v>
+      </c>
+      <c r="T29">
+        <v>1.000023376018707</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000092748055137</v>
+        <v>1.000164204452509</v>
       </c>
       <c r="D4">
-        <v>0.999629002426507</v>
+        <v>0.9993431839866932</v>
       </c>
       <c r="E4">
-        <v>0.999629002426507</v>
+        <v>0.9993431839866932</v>
       </c>
       <c r="F4">
-        <v>1.000092748055137</v>
+        <v>1.000164204452509</v>
       </c>
       <c r="G4">
-        <v>1.000092748055137</v>
+        <v>1.000164204452509</v>
       </c>
       <c r="H4">
-        <v>0.9997959518646408</v>
+        <v>0.9996387526746877</v>
       </c>
       <c r="I4">
-        <v>1.000247329535183</v>
+        <v>1.000437876311164</v>
       </c>
       <c r="J4">
-        <v>1.000092748055137</v>
+        <v>1.000164204452509</v>
       </c>
       <c r="K4">
-        <v>1.000092748055137</v>
+        <v>1.000164204452509</v>
       </c>
       <c r="L4">
-        <v>1.000092748055137</v>
+        <v>1.000164204452509</v>
       </c>
       <c r="M4">
-        <v>0.999860875240822</v>
+        <v>0.999753694219601</v>
       </c>
       <c r="N4">
-        <v>0.999860875240822</v>
+        <v>0.999753694219601</v>
       </c>
       <c r="O4">
-        <v>0.9998392341154282</v>
+        <v>0.9997153803712967</v>
       </c>
       <c r="P4">
-        <v>0.9999381661789269</v>
+        <v>0.9998905309639037</v>
       </c>
       <c r="Q4">
-        <v>0.9999381661789269</v>
+        <v>0.9998905309639037</v>
       </c>
       <c r="R4">
-        <v>0.9999768116479795</v>
+        <v>0.999958949336055</v>
       </c>
       <c r="S4">
-        <v>0.9999768116479795</v>
+        <v>0.999958949336055</v>
       </c>
       <c r="T4">
-        <v>0.9999917546652902</v>
+        <v>0.9999854043883455</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000172416693082</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="D5">
-        <v>0.9993103309798268</v>
+        <v>0.9987164438054673</v>
       </c>
       <c r="E5">
-        <v>0.9993103309798268</v>
+        <v>0.9987164438054673</v>
       </c>
       <c r="F5">
-        <v>1.000172416693082</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="G5">
-        <v>1.000172416693082</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="H5">
-        <v>0.9996206838400572</v>
+        <v>0.9992940488817119</v>
       </c>
       <c r="I5">
-        <v>1.000459778364554</v>
+        <v>1.000855704199693</v>
       </c>
       <c r="J5">
-        <v>1.000172416693082</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="K5">
-        <v>1.000172416693082</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="L5">
-        <v>1.000172416693082</v>
+        <v>1.000320880526689</v>
       </c>
       <c r="M5">
-        <v>0.9997413738364544</v>
+        <v>0.9995186621660779</v>
       </c>
       <c r="N5">
-        <v>0.9997413738364544</v>
+        <v>0.9995186621660779</v>
       </c>
       <c r="O5">
-        <v>0.9997011438376554</v>
+        <v>0.9994437910712892</v>
       </c>
       <c r="P5">
-        <v>0.9998850547886636</v>
+        <v>0.9997860682862815</v>
       </c>
       <c r="Q5">
-        <v>0.9998850547886636</v>
+        <v>0.9997860682862815</v>
       </c>
       <c r="R5">
-        <v>0.9999568952647682</v>
+        <v>0.9999197713463832</v>
       </c>
       <c r="S5">
-        <v>0.9999568952647682</v>
+        <v>0.9999197713463832</v>
       </c>
       <c r="T5">
-        <v>0.9999846738772806</v>
+        <v>0.999971473077823</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000573429002178</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="D6">
-        <v>0.9977062349834561</v>
+        <v>0.999629002426507</v>
       </c>
       <c r="E6">
-        <v>0.9977062349834561</v>
+        <v>0.999629002426507</v>
       </c>
       <c r="F6">
-        <v>1.000573429002178</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="G6">
-        <v>1.000573429002178</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="H6">
-        <v>0.998738432672245</v>
+        <v>0.9997959518646408</v>
       </c>
       <c r="I6">
-        <v>1.001529176207897</v>
+        <v>1.000247329535183</v>
       </c>
       <c r="J6">
-        <v>1.000573429002178</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="K6">
-        <v>1.000573429002178</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="L6">
-        <v>1.000573429002178</v>
+        <v>1.000092748055137</v>
       </c>
       <c r="M6">
-        <v>0.9991398319928169</v>
+        <v>0.999860875240822</v>
       </c>
       <c r="N6">
-        <v>0.9991398319928169</v>
+        <v>0.999860875240822</v>
       </c>
       <c r="O6">
-        <v>0.999006032219293</v>
+        <v>0.9998392341154282</v>
       </c>
       <c r="P6">
-        <v>0.9996176976626039</v>
+        <v>0.9999381661789269</v>
       </c>
       <c r="Q6">
-        <v>0.9996176976626039</v>
+        <v>0.9999381661789269</v>
       </c>
       <c r="R6">
-        <v>0.9998566304974974</v>
+        <v>0.9999768116479795</v>
       </c>
       <c r="S6">
-        <v>0.9998566304974974</v>
+        <v>0.9999768116479795</v>
       </c>
       <c r="T6">
-        <v>0.9999490218116885</v>
+        <v>0.9999917546652902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000019002707936</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="D7">
-        <v>0.9999239922974491</v>
+        <v>0.9993103309798268</v>
       </c>
       <c r="E7">
-        <v>0.9999239922974491</v>
+        <v>0.9993103309798268</v>
       </c>
       <c r="F7">
-        <v>1.000019002707936</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="G7">
-        <v>1.000019002707936</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="H7">
-        <v>0.999958197477169</v>
+        <v>0.9996206838400572</v>
       </c>
       <c r="I7">
-        <v>1.000050671315418</v>
+        <v>1.000459778364554</v>
       </c>
       <c r="J7">
-        <v>1.000019002707936</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="K7">
-        <v>1.000019002707936</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="L7">
-        <v>1.000019002707936</v>
+        <v>1.000172416693082</v>
       </c>
       <c r="M7">
-        <v>0.9999714975026923</v>
+        <v>0.9997413738364544</v>
       </c>
       <c r="N7">
-        <v>0.9999714975026923</v>
+        <v>0.9997413738364544</v>
       </c>
       <c r="O7">
-        <v>0.9999670641608512</v>
+        <v>0.9997011438376554</v>
       </c>
       <c r="P7">
-        <v>0.9999873325711067</v>
+        <v>0.9998850547886636</v>
       </c>
       <c r="Q7">
-        <v>0.9999873325711067</v>
+        <v>0.9998850547886636</v>
       </c>
       <c r="R7">
-        <v>0.999995250105314</v>
+        <v>0.9999568952647682</v>
       </c>
       <c r="S7">
-        <v>0.999995250105314</v>
+        <v>0.9999568952647682</v>
       </c>
       <c r="T7">
-        <v>0.9999983115356402</v>
+        <v>0.9999846738772806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000001430164178</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="D8">
-        <v>0.9999942836438702</v>
+        <v>0.9977062349834561</v>
       </c>
       <c r="E8">
-        <v>0.9999942836438702</v>
+        <v>0.9977062349834561</v>
       </c>
       <c r="F8">
-        <v>1.000001430164178</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="G8">
-        <v>1.000001430164178</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="H8">
-        <v>0.9999968572775617</v>
+        <v>0.998738432672245</v>
       </c>
       <c r="I8">
-        <v>1.000003810149395</v>
+        <v>1.001529176207897</v>
       </c>
       <c r="J8">
-        <v>1.000001430164178</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="K8">
-        <v>1.000001430164178</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="L8">
-        <v>1.000001430164178</v>
+        <v>1.000573429002178</v>
       </c>
       <c r="M8">
-        <v>0.9999978569040242</v>
+        <v>0.9991398319928169</v>
       </c>
       <c r="N8">
-        <v>0.9999978569040242</v>
+        <v>0.9991398319928169</v>
       </c>
       <c r="O8">
-        <v>0.9999975236952033</v>
+        <v>0.999006032219293</v>
       </c>
       <c r="P8">
-        <v>0.9999990479907422</v>
+        <v>0.9996176976626039</v>
       </c>
       <c r="Q8">
-        <v>0.9999990479907422</v>
+        <v>0.9996176976626039</v>
       </c>
       <c r="R8">
-        <v>0.9999996435341012</v>
+        <v>0.9998566304974974</v>
       </c>
       <c r="S8">
-        <v>0.9999996435341012</v>
+        <v>0.9998566304974974</v>
       </c>
       <c r="T8">
-        <v>0.9999998735938936</v>
+        <v>0.9999490218116885</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000031540050173</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="D9">
-        <v>0.9998738372178897</v>
+        <v>0.9999239922974491</v>
       </c>
       <c r="E9">
-        <v>0.9998738372178897</v>
+        <v>0.9999239922974491</v>
       </c>
       <c r="F9">
-        <v>1.000031540050173</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="G9">
-        <v>1.000031540050173</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="H9">
-        <v>0.9999306129898526</v>
+        <v>0.999958197477169</v>
       </c>
       <c r="I9">
-        <v>1.000084107857689</v>
+        <v>1.000050671315418</v>
       </c>
       <c r="J9">
-        <v>1.000031540050173</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="K9">
-        <v>1.000031540050173</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="L9">
-        <v>1.000031540050173</v>
+        <v>1.000019002707936</v>
       </c>
       <c r="M9">
-        <v>0.9999526886340313</v>
+        <v>0.9999714975026923</v>
       </c>
       <c r="N9">
-        <v>0.9999526886340313</v>
+        <v>0.9999714975026923</v>
       </c>
       <c r="O9">
-        <v>0.9999453300859718</v>
+        <v>0.9999670641608512</v>
       </c>
       <c r="P9">
-        <v>0.9999789724394118</v>
+        <v>0.9999873325711067</v>
       </c>
       <c r="Q9">
-        <v>0.9999789724394118</v>
+        <v>0.9999873325711067</v>
       </c>
       <c r="R9">
-        <v>0.9999921143421021</v>
+        <v>0.999995250105314</v>
       </c>
       <c r="S9">
-        <v>0.9999921143421021</v>
+        <v>0.999995250105314</v>
       </c>
       <c r="T9">
-        <v>0.9999971963693252</v>
+        <v>0.9999983115356402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000581993772743</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="D10">
-        <v>0.9976719766164388</v>
+        <v>0.9999942836438702</v>
       </c>
       <c r="E10">
-        <v>0.9976719766164388</v>
+        <v>0.9999942836438702</v>
       </c>
       <c r="F10">
-        <v>1.000581993772743</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="G10">
-        <v>1.000581993772743</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="H10">
-        <v>0.9987195908037128</v>
+        <v>0.9999968572775617</v>
       </c>
       <c r="I10">
-        <v>1.001552014607612</v>
+        <v>1.000003810149395</v>
       </c>
       <c r="J10">
-        <v>1.000581993772743</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="K10">
-        <v>1.000581993772743</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="L10">
-        <v>1.000581993772743</v>
+        <v>1.000001430164178</v>
       </c>
       <c r="M10">
-        <v>0.999126985194591</v>
+        <v>0.9999978569040242</v>
       </c>
       <c r="N10">
-        <v>0.999126985194591</v>
+        <v>0.9999978569040242</v>
       </c>
       <c r="O10">
-        <v>0.9989911870642981</v>
+        <v>0.9999975236952033</v>
       </c>
       <c r="P10">
-        <v>0.999611988053975</v>
+        <v>0.9999990479907422</v>
       </c>
       <c r="Q10">
-        <v>0.999611988053975</v>
+        <v>0.9999990479907422</v>
       </c>
       <c r="R10">
-        <v>0.9998544894836671</v>
+        <v>0.9999996435341012</v>
       </c>
       <c r="S10">
-        <v>0.9998544894836671</v>
+        <v>0.9999996435341012</v>
       </c>
       <c r="T10">
-        <v>0.9999482605576656</v>
+        <v>0.9999998735938936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000625358292651</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="D11">
-        <v>0.9974985628805104</v>
+        <v>0.9998738372178897</v>
       </c>
       <c r="E11">
-        <v>0.9974985628805104</v>
+        <v>0.9998738372178897</v>
       </c>
       <c r="F11">
-        <v>1.000625358292651</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="G11">
-        <v>1.000625358292651</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="H11">
-        <v>0.9986242092285254</v>
+        <v>0.9999306129898526</v>
       </c>
       <c r="I11">
-        <v>1.001667622589512</v>
+        <v>1.000084107857689</v>
       </c>
       <c r="J11">
-        <v>1.000625358292651</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="K11">
-        <v>1.000625358292651</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="L11">
-        <v>1.000625358292651</v>
+        <v>1.000031540050173</v>
       </c>
       <c r="M11">
-        <v>0.9990619605865808</v>
+        <v>0.9999526886340313</v>
       </c>
       <c r="N11">
-        <v>0.9990619605865808</v>
+        <v>0.9999526886340313</v>
       </c>
       <c r="O11">
-        <v>0.998916043467229</v>
+        <v>0.9999453300859718</v>
       </c>
       <c r="P11">
-        <v>0.9995830931552709</v>
+        <v>0.9999789724394118</v>
       </c>
       <c r="Q11">
-        <v>0.9995830931552709</v>
+        <v>0.9999789724394118</v>
       </c>
       <c r="R11">
-        <v>0.9998436594396161</v>
+        <v>0.9999921143421021</v>
       </c>
       <c r="S11">
-        <v>0.9998436594396161</v>
+        <v>0.9999921143421021</v>
       </c>
       <c r="T11">
-        <v>0.9999444115960835</v>
+        <v>0.9999971963693252</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.00019556791579</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="D12">
-        <v>0.9992177278526325</v>
+        <v>0.9976719766164388</v>
       </c>
       <c r="E12">
-        <v>0.9992177278526325</v>
+        <v>0.9976719766164388</v>
       </c>
       <c r="F12">
-        <v>1.00019556791579</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="G12">
-        <v>1.00019556791579</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="H12">
-        <v>0.9995697527473677</v>
+        <v>0.9987195908037128</v>
       </c>
       <c r="I12">
-        <v>1.000521513515791</v>
+        <v>1.001552014607612</v>
       </c>
       <c r="J12">
-        <v>1.00019556791579</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="K12">
-        <v>1.00019556791579</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="L12">
-        <v>1.00019556791579</v>
+        <v>1.000581993772743</v>
       </c>
       <c r="M12">
-        <v>0.9997066478842112</v>
+        <v>0.999126985194591</v>
       </c>
       <c r="N12">
-        <v>0.9997066478842112</v>
+        <v>0.999126985194591</v>
       </c>
       <c r="O12">
-        <v>0.99966101617193</v>
+        <v>0.9989911870642981</v>
       </c>
       <c r="P12">
-        <v>0.9998696212280708</v>
+        <v>0.999611988053975</v>
       </c>
       <c r="Q12">
-        <v>0.9998696212280708</v>
+        <v>0.999611988053975</v>
       </c>
       <c r="R12">
-        <v>0.9999511079000005</v>
+        <v>0.9998544894836671</v>
       </c>
       <c r="S12">
-        <v>0.9999511079000005</v>
+        <v>0.9998544894836671</v>
       </c>
       <c r="T12">
-        <v>0.9999826163105268</v>
+        <v>0.9999482605576656</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998855389247656</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="D13">
-        <v>1.000457854300378</v>
+        <v>0.9974985628805104</v>
       </c>
       <c r="E13">
-        <v>1.000457854300378</v>
+        <v>0.9974985628805104</v>
       </c>
       <c r="F13">
-        <v>0.9998855389247656</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="G13">
-        <v>0.9998855389247656</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="H13">
-        <v>1.000251822497842</v>
+        <v>0.9986242092285254</v>
       </c>
       <c r="I13">
-        <v>0.9996947631889451</v>
+        <v>1.001667622589512</v>
       </c>
       <c r="J13">
-        <v>0.9998855389247656</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="K13">
-        <v>0.9998855389247656</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="L13">
-        <v>0.9998855389247656</v>
+        <v>1.000625358292651</v>
       </c>
       <c r="M13">
-        <v>1.000171696612572</v>
+        <v>0.9990619605865808</v>
       </c>
       <c r="N13">
-        <v>1.000171696612572</v>
+        <v>0.9990619605865808</v>
       </c>
       <c r="O13">
-        <v>1.000198405240995</v>
+        <v>0.998916043467229</v>
       </c>
       <c r="P13">
-        <v>1.000076310716636</v>
+        <v>0.9995830931552709</v>
       </c>
       <c r="Q13">
-        <v>1.000076310716636</v>
+        <v>0.9995830931552709</v>
       </c>
       <c r="R13">
-        <v>1.000028617768669</v>
+        <v>0.9998436594396161</v>
       </c>
       <c r="S13">
-        <v>1.000028617768669</v>
+        <v>0.9998436594396161</v>
       </c>
       <c r="T13">
-        <v>1.00001017612691</v>
+        <v>0.9999444115960835</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.0010055</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="D14">
-        <v>0.9959779000000001</v>
+        <v>0.9992177278526325</v>
       </c>
       <c r="E14">
-        <v>0.9959779000000001</v>
+        <v>0.9992177278526325</v>
       </c>
       <c r="F14">
-        <v>1.0010055</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="G14">
-        <v>1.0010055</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="H14">
-        <v>0.9977878500000004</v>
+        <v>0.9995697527473677</v>
       </c>
       <c r="I14">
-        <v>1.0026814</v>
+        <v>1.000521513515791</v>
       </c>
       <c r="J14">
-        <v>1.0010055</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="K14">
-        <v>1.0010055</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="L14">
-        <v>1.0010055</v>
+        <v>1.00019556791579</v>
       </c>
       <c r="M14">
-        <v>0.9984917</v>
+        <v>0.9997066478842112</v>
       </c>
       <c r="N14">
-        <v>0.9984917</v>
+        <v>0.9997066478842112</v>
       </c>
       <c r="O14">
-        <v>0.9982570833333334</v>
+        <v>0.99966101617193</v>
       </c>
       <c r="P14">
-        <v>0.9993296333333334</v>
+        <v>0.9998696212280708</v>
       </c>
       <c r="Q14">
-        <v>0.9993296333333334</v>
+        <v>0.9998696212280708</v>
       </c>
       <c r="R14">
-        <v>0.9997486</v>
+        <v>0.9999511079000005</v>
       </c>
       <c r="S14">
-        <v>0.9997486</v>
+        <v>0.9999511079000005</v>
       </c>
       <c r="T14">
-        <v>0.9999106083333333</v>
+        <v>0.9999826163105268</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9959779000000001</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="D15">
-        <v>1.0160884</v>
+        <v>1.000457854300378</v>
       </c>
       <c r="E15">
-        <v>1.0160884</v>
+        <v>1.000457854300378</v>
       </c>
       <c r="F15">
-        <v>0.9959779000000001</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="G15">
-        <v>0.9959779000000001</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="H15">
-        <v>1.0088486</v>
+        <v>1.000251822497842</v>
       </c>
       <c r="I15">
-        <v>0.98927441</v>
+        <v>0.9996947631889451</v>
       </c>
       <c r="J15">
-        <v>0.9959779000000001</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="K15">
-        <v>0.9959779000000001</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="L15">
-        <v>0.9959779000000001</v>
+        <v>0.9998855389247656</v>
       </c>
       <c r="M15">
-        <v>1.00603315</v>
+        <v>1.000171696612572</v>
       </c>
       <c r="N15">
-        <v>1.00603315</v>
+        <v>1.000171696612572</v>
       </c>
       <c r="O15">
-        <v>1.006971633333333</v>
+        <v>1.000198405240995</v>
       </c>
       <c r="P15">
-        <v>1.0026814</v>
+        <v>1.000076310716636</v>
       </c>
       <c r="Q15">
-        <v>1.0026814</v>
+        <v>1.000076310716636</v>
       </c>
       <c r="R15">
-        <v>1.001005525</v>
+        <v>1.000028617768669</v>
       </c>
       <c r="S15">
-        <v>1.001005525</v>
+        <v>1.000028617768669</v>
       </c>
       <c r="T15">
-        <v>1.000357518333333</v>
+        <v>1.00001017612691</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1465,7 +1471,7 @@
         <v>1.0010055</v>
       </c>
       <c r="H16">
-        <v>0.99778785</v>
+        <v>0.9977878500000004</v>
       </c>
       <c r="I16">
         <v>1.0026814</v>
@@ -1486,7 +1492,7 @@
         <v>0.9984917</v>
       </c>
       <c r="O16">
-        <v>0.9982570833333333</v>
+        <v>0.9982570833333334</v>
       </c>
       <c r="P16">
         <v>0.9993296333333334</v>
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.99723481</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="D17">
-        <v>1.0110608</v>
+        <v>1.0160884</v>
       </c>
       <c r="E17">
-        <v>1.0110608</v>
+        <v>1.0160884</v>
       </c>
       <c r="F17">
-        <v>0.99723481</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="G17">
-        <v>0.99723481</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H17">
-        <v>1.0060834</v>
+        <v>1.0088486</v>
       </c>
       <c r="I17">
-        <v>0.99262616</v>
+        <v>0.98927441</v>
       </c>
       <c r="J17">
-        <v>0.99723481</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="K17">
-        <v>0.99723481</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="L17">
-        <v>0.99723481</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="M17">
-        <v>1.004147805</v>
+        <v>1.00603315</v>
       </c>
       <c r="N17">
-        <v>1.004147805</v>
+        <v>1.00603315</v>
       </c>
       <c r="O17">
-        <v>1.004793003333333</v>
+        <v>1.006971633333333</v>
       </c>
       <c r="P17">
-        <v>1.001843473333333</v>
+        <v>1.0026814</v>
       </c>
       <c r="Q17">
-        <v>1.001843473333333</v>
+        <v>1.0026814</v>
       </c>
       <c r="R17">
-        <v>1.0006913075</v>
+        <v>1.001005525</v>
       </c>
       <c r="S17">
-        <v>1.0006913075</v>
+        <v>1.001005525</v>
       </c>
       <c r="T17">
-        <v>1.000245798333333</v>
+        <v>1.000357518333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000316801369863</v>
+        <v>1.0010055</v>
       </c>
       <c r="D18">
-        <v>0.9987327567123285</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="E18">
-        <v>0.9987327567123285</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="F18">
-        <v>1.000316801369863</v>
+        <v>1.0010055</v>
       </c>
       <c r="G18">
-        <v>1.000316801369863</v>
+        <v>1.0010055</v>
       </c>
       <c r="H18">
-        <v>0.9993030205479453</v>
+        <v>0.99778785</v>
       </c>
       <c r="I18">
-        <v>1.00084483</v>
+        <v>1.0026814</v>
       </c>
       <c r="J18">
-        <v>1.000316801369863</v>
+        <v>1.0010055</v>
       </c>
       <c r="K18">
-        <v>1.000316801369863</v>
+        <v>1.0010055</v>
       </c>
       <c r="L18">
-        <v>1.000316801369863</v>
+        <v>1.0010055</v>
       </c>
       <c r="M18">
-        <v>0.9995247790410959</v>
+        <v>0.9984917</v>
       </c>
       <c r="N18">
-        <v>0.9995247790410959</v>
+        <v>0.9984917</v>
       </c>
       <c r="O18">
-        <v>0.9994508595433791</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P18">
-        <v>0.9997887864840184</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q18">
-        <v>0.9997887864840184</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R18">
-        <v>0.9999207902054796</v>
+        <v>0.9997486</v>
       </c>
       <c r="S18">
-        <v>0.9999207902054796</v>
+        <v>0.9997486</v>
       </c>
       <c r="T18">
-        <v>0.9999718352283108</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9986240136842104</v>
+        <v>0.99723481</v>
       </c>
       <c r="D19">
-        <v>1.005503925263158</v>
+        <v>1.0110608</v>
       </c>
       <c r="E19">
-        <v>1.005503925263158</v>
+        <v>1.0110608</v>
       </c>
       <c r="F19">
-        <v>0.9986240136842104</v>
+        <v>0.99723481</v>
       </c>
       <c r="G19">
-        <v>0.9986240136842104</v>
+        <v>0.99723481</v>
       </c>
       <c r="H19">
-        <v>1.003027150526316</v>
+        <v>1.0060834</v>
       </c>
       <c r="I19">
-        <v>0.9963307184210525</v>
+        <v>0.99262616</v>
       </c>
       <c r="J19">
-        <v>0.9986240136842104</v>
+        <v>0.99723481</v>
       </c>
       <c r="K19">
-        <v>0.9986240136842104</v>
+        <v>0.99723481</v>
       </c>
       <c r="L19">
-        <v>0.9986240136842104</v>
+        <v>0.99723481</v>
       </c>
       <c r="M19">
-        <v>1.002063969473684</v>
+        <v>1.004147805</v>
       </c>
       <c r="N19">
-        <v>1.002063969473684</v>
+        <v>1.004147805</v>
       </c>
       <c r="O19">
-        <v>1.002385029824561</v>
+        <v>1.004793003333333</v>
       </c>
       <c r="P19">
-        <v>1.00091731754386</v>
+        <v>1.001843473333333</v>
       </c>
       <c r="Q19">
-        <v>1.00091731754386</v>
+        <v>1.001843473333333</v>
       </c>
       <c r="R19">
-        <v>1.000343991578947</v>
+        <v>1.0006913075</v>
       </c>
       <c r="S19">
-        <v>1.000343991578947</v>
+        <v>1.0006913075</v>
       </c>
       <c r="T19">
-        <v>1.000122305877193</v>
+        <v>1.000245798333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000277834210526</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="D20">
-        <v>0.9988886242105264</v>
+        <v>0.9987327567123285</v>
       </c>
       <c r="E20">
-        <v>0.9988886242105264</v>
+        <v>0.9987327567123285</v>
       </c>
       <c r="F20">
-        <v>1.000277834210526</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="G20">
-        <v>1.000277834210526</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="H20">
-        <v>0.9993887473684213</v>
+        <v>0.9993030205479453</v>
       </c>
       <c r="I20">
-        <v>1.000740918421053</v>
+        <v>1.00084483</v>
       </c>
       <c r="J20">
-        <v>1.000277834210526</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="K20">
-        <v>1.000277834210526</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="L20">
-        <v>1.000277834210526</v>
+        <v>1.000316801369863</v>
       </c>
       <c r="M20">
-        <v>0.9995832292105262</v>
+        <v>0.9995247790410959</v>
       </c>
       <c r="N20">
-        <v>0.9995832292105262</v>
+        <v>0.9995247790410959</v>
       </c>
       <c r="O20">
-        <v>0.9995184019298247</v>
+        <v>0.9994508595433791</v>
       </c>
       <c r="P20">
-        <v>0.9998147642105262</v>
+        <v>0.9997887864840184</v>
       </c>
       <c r="Q20">
-        <v>0.9998147642105262</v>
+        <v>0.9997887864840184</v>
       </c>
       <c r="R20">
-        <v>0.9999305317105261</v>
+        <v>0.9999207902054796</v>
       </c>
       <c r="S20">
-        <v>0.9999305317105261</v>
+        <v>0.9999207902054796</v>
       </c>
       <c r="T20">
-        <v>0.9999752987719298</v>
+        <v>0.9999718352283108</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9973269266129244</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="D21">
-        <v>1.010692306143848</v>
+        <v>1.005503925263158</v>
       </c>
       <c r="E21">
-        <v>1.010692306143848</v>
+        <v>1.005503925263158</v>
       </c>
       <c r="F21">
-        <v>0.9973269266129244</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="G21">
-        <v>0.9973269266129244</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="H21">
-        <v>1.005880777237486</v>
+        <v>1.003027150526316</v>
       </c>
       <c r="I21">
-        <v>0.9928718018038819</v>
+        <v>0.9963307184210525</v>
       </c>
       <c r="J21">
-        <v>0.9973269266129244</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="K21">
-        <v>0.9973269266129244</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="L21">
-        <v>0.9973269266129244</v>
+        <v>0.9986240136842104</v>
       </c>
       <c r="M21">
-        <v>1.004009616378386</v>
+        <v>1.002063969473684</v>
       </c>
       <c r="N21">
-        <v>1.004009616378386</v>
+        <v>1.002063969473684</v>
       </c>
       <c r="O21">
-        <v>1.004633336664753</v>
+        <v>1.002385029824561</v>
       </c>
       <c r="P21">
-        <v>1.001782053123232</v>
+        <v>1.00091731754386</v>
       </c>
       <c r="Q21">
-        <v>1.001782053123232</v>
+        <v>1.00091731754386</v>
       </c>
       <c r="R21">
-        <v>1.000668271495655</v>
+        <v>1.000343991578947</v>
       </c>
       <c r="S21">
-        <v>1.000668271495655</v>
+        <v>1.000343991578947</v>
       </c>
       <c r="T21">
-        <v>1.000237610837331</v>
+        <v>1.000122305877193</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9992875286153806</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="D22">
-        <v>1.00284988332352</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="E22">
-        <v>1.00284988332352</v>
+        <v>0.9988886242105264</v>
       </c>
       <c r="F22">
-        <v>0.9992875286153806</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="G22">
-        <v>0.9992875286153806</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="H22">
-        <v>1.001567436407662</v>
+        <v>0.9993887473684213</v>
       </c>
       <c r="I22">
-        <v>0.9981000766135258</v>
+        <v>1.000740918421053</v>
       </c>
       <c r="J22">
-        <v>0.9992875286153806</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="K22">
-        <v>0.9992875286153806</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="L22">
-        <v>0.9992875286153806</v>
+        <v>1.000277834210526</v>
       </c>
       <c r="M22">
-        <v>1.001068705969451</v>
+        <v>0.9995832292105262</v>
       </c>
       <c r="N22">
-        <v>1.001068705969451</v>
+        <v>0.9995832292105262</v>
       </c>
       <c r="O22">
-        <v>1.001234949448854</v>
+        <v>0.9995184019298247</v>
       </c>
       <c r="P22">
-        <v>1.000474980184761</v>
+        <v>0.9998147642105262</v>
       </c>
       <c r="Q22">
-        <v>1.000474980184761</v>
+        <v>0.9998147642105262</v>
       </c>
       <c r="R22">
-        <v>1.000178117292416</v>
+        <v>0.9999305317105261</v>
       </c>
       <c r="S22">
-        <v>1.000178117292416</v>
+        <v>0.9999305317105261</v>
       </c>
       <c r="T22">
-        <v>1.000063330365142</v>
+        <v>0.9999752987719298</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.000028097300705</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="D23">
-        <v>0.9998876122407557</v>
+        <v>1.010692306143848</v>
       </c>
       <c r="E23">
-        <v>0.9998876122407557</v>
+        <v>1.010692306143848</v>
       </c>
       <c r="F23">
-        <v>1.000028097300705</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="G23">
-        <v>1.000028097300705</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="H23">
-        <v>0.9999381882324063</v>
+        <v>1.005880777237486</v>
       </c>
       <c r="I23">
-        <v>1.000074918695383</v>
+        <v>0.9928718018038819</v>
       </c>
       <c r="J23">
-        <v>1.000028097300705</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="K23">
-        <v>1.000028097300705</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="L23">
-        <v>1.000028097300705</v>
+        <v>0.9973269266129244</v>
       </c>
       <c r="M23">
-        <v>0.9999578547707304</v>
+        <v>1.004009616378386</v>
       </c>
       <c r="N23">
-        <v>0.9999578547707304</v>
+        <v>1.004009616378386</v>
       </c>
       <c r="O23">
-        <v>0.9999512992579557</v>
+        <v>1.004633336664753</v>
       </c>
       <c r="P23">
-        <v>0.9999812689473887</v>
+        <v>1.001782053123232</v>
       </c>
       <c r="Q23">
-        <v>0.9999812689473887</v>
+        <v>1.001782053123232</v>
       </c>
       <c r="R23">
-        <v>0.9999929760357178</v>
+        <v>1.000668271495655</v>
       </c>
       <c r="S23">
-        <v>0.9999929760357178</v>
+        <v>1.000668271495655</v>
       </c>
       <c r="T23">
-        <v>0.9999975018451103</v>
+        <v>1.000237610837331</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000007626290974</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="D24">
-        <v>0.9999695108552538</v>
+        <v>1.00284988332352</v>
       </c>
       <c r="E24">
-        <v>0.9999695108552538</v>
+        <v>1.00284988332352</v>
       </c>
       <c r="F24">
-        <v>1.000007626290974</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="G24">
-        <v>1.000007626290974</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="H24">
-        <v>0.9999832304387672</v>
+        <v>1.001567436407662</v>
       </c>
       <c r="I24">
-        <v>1.000020322947068</v>
+        <v>0.9981000766135258</v>
       </c>
       <c r="J24">
-        <v>1.000007626290974</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="K24">
-        <v>1.000007626290974</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="L24">
-        <v>1.000007626290974</v>
+        <v>0.9992875286153806</v>
       </c>
       <c r="M24">
-        <v>0.9999885685731138</v>
+        <v>1.001068705969451</v>
       </c>
       <c r="N24">
-        <v>0.9999885685731138</v>
+        <v>1.001068705969451</v>
       </c>
       <c r="O24">
-        <v>0.9999867891949984</v>
+        <v>1.001234949448854</v>
       </c>
       <c r="P24">
-        <v>0.9999949211457339</v>
+        <v>1.000474980184761</v>
       </c>
       <c r="Q24">
-        <v>0.9999949211457339</v>
+        <v>1.000474980184761</v>
       </c>
       <c r="R24">
-        <v>0.9999980974320438</v>
+        <v>1.000178117292416</v>
       </c>
       <c r="S24">
-        <v>0.9999980974320438</v>
+        <v>1.000178117292416</v>
       </c>
       <c r="T24">
-        <v>0.9999993238523351</v>
+        <v>1.000063330365142</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.002089797253161</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="D25">
-        <v>0.9916408172691078</v>
+        <v>0.9998876122407557</v>
       </c>
       <c r="E25">
-        <v>0.9916408172691078</v>
+        <v>0.9998876122407557</v>
       </c>
       <c r="F25">
-        <v>1.002089797253161</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="G25">
-        <v>1.002089797253161</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="H25">
-        <v>0.9954024506878769</v>
+        <v>0.9999381882324063</v>
       </c>
       <c r="I25">
-        <v>1.005572790015801</v>
+        <v>1.000074918695383</v>
       </c>
       <c r="J25">
-        <v>1.002089797253161</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="K25">
-        <v>1.002089797253161</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="L25">
-        <v>1.002089797253161</v>
+        <v>1.000028097300705</v>
       </c>
       <c r="M25">
-        <v>0.9968653072611346</v>
+        <v>0.9999578547707304</v>
       </c>
       <c r="N25">
-        <v>0.9968653072611346</v>
+        <v>0.9999578547707304</v>
       </c>
       <c r="O25">
-        <v>0.9963776884033821</v>
+        <v>0.9999512992579557</v>
       </c>
       <c r="P25">
-        <v>0.9986068039251436</v>
+        <v>0.9999812689473887</v>
       </c>
       <c r="Q25">
-        <v>0.9986068039251436</v>
+        <v>0.9999812689473887</v>
       </c>
       <c r="R25">
-        <v>0.9994775522571481</v>
+        <v>0.9999929760357178</v>
       </c>
       <c r="S25">
-        <v>0.9994775522571481</v>
+        <v>0.9999929760357178</v>
       </c>
       <c r="T25">
-        <v>0.9998142416220448</v>
+        <v>0.9999975018451103</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000561146984666</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="D26">
-        <v>0.9977554399469895</v>
+        <v>0.9999695108552538</v>
       </c>
       <c r="E26">
-        <v>0.9977554399469895</v>
+        <v>0.9999695108552538</v>
       </c>
       <c r="F26">
-        <v>1.000561146984666</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="G26">
-        <v>1.000561146984666</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="H26">
-        <v>0.9987654929139986</v>
+        <v>0.9999832304387672</v>
       </c>
       <c r="I26">
-        <v>1.001496364492529</v>
+        <v>1.000020322947068</v>
       </c>
       <c r="J26">
-        <v>1.000561146984666</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="K26">
-        <v>1.000561146984666</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="L26">
-        <v>1.000561146984666</v>
+        <v>1.000007626290974</v>
       </c>
       <c r="M26">
-        <v>0.9991582934658279</v>
+        <v>0.9999885685731138</v>
       </c>
       <c r="N26">
-        <v>0.9991582934658279</v>
+        <v>0.9999885685731138</v>
       </c>
       <c r="O26">
-        <v>0.9990273599485514</v>
+        <v>0.9999867891949984</v>
       </c>
       <c r="P26">
-        <v>0.9996259113054405</v>
+        <v>0.9999949211457339</v>
       </c>
       <c r="Q26">
-        <v>0.9996259113054405</v>
+        <v>0.9999949211457339</v>
       </c>
       <c r="R26">
-        <v>0.9998597202252471</v>
+        <v>0.9999980974320438</v>
       </c>
       <c r="S26">
-        <v>0.9998597202252471</v>
+        <v>0.9999980974320438</v>
       </c>
       <c r="T26">
-        <v>0.9999501230512525</v>
+        <v>0.9999993238523351</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.000059921129255</v>
+        <v>1.002089797253161</v>
       </c>
       <c r="D27">
-        <v>0.999760285765084</v>
+        <v>0.9916408172691078</v>
       </c>
       <c r="E27">
-        <v>0.999760285765084</v>
+        <v>0.9916408172691078</v>
       </c>
       <c r="F27">
-        <v>1.000059921129255</v>
+        <v>1.002089797253161</v>
       </c>
       <c r="G27">
-        <v>1.000059921129255</v>
+        <v>1.002089797253161</v>
       </c>
       <c r="H27">
-        <v>0.9998681530605864</v>
+        <v>0.9954024506878769</v>
       </c>
       <c r="I27">
-        <v>1.000159821500623</v>
+        <v>1.005572790015801</v>
       </c>
       <c r="J27">
-        <v>1.000059921129255</v>
+        <v>1.002089797253161</v>
       </c>
       <c r="K27">
-        <v>1.000059921129255</v>
+        <v>1.002089797253161</v>
       </c>
       <c r="L27">
-        <v>1.000059921129255</v>
+        <v>1.002089797253161</v>
       </c>
       <c r="M27">
-        <v>0.9999101034471697</v>
+        <v>0.9968653072611346</v>
       </c>
       <c r="N27">
-        <v>0.9999101034471697</v>
+        <v>0.9968653072611346</v>
       </c>
       <c r="O27">
-        <v>0.9998961199849753</v>
+        <v>0.9963776884033821</v>
       </c>
       <c r="P27">
-        <v>0.9999600426745315</v>
+        <v>0.9986068039251436</v>
       </c>
       <c r="Q27">
-        <v>0.9999600426745315</v>
+        <v>0.9986068039251436</v>
       </c>
       <c r="R27">
-        <v>0.9999850122882125</v>
+        <v>0.9994775522571481</v>
       </c>
       <c r="S27">
-        <v>0.9999850122882125</v>
+        <v>0.9994775522571481</v>
       </c>
       <c r="T27">
-        <v>0.9999946706190098</v>
+        <v>0.9998142416220448</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9999395405983535</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="D28">
-        <v>1.000241835665007</v>
+        <v>0.9977554399469895</v>
       </c>
       <c r="E28">
-        <v>1.000241835665007</v>
+        <v>0.9977554399469895</v>
       </c>
       <c r="F28">
-        <v>0.9999395405983535</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="G28">
-        <v>0.9999395405983535</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="H28">
-        <v>1.000133008379125</v>
+        <v>0.9987654929139986</v>
       </c>
       <c r="I28">
-        <v>0.9998387793607175</v>
+        <v>1.001496364492529</v>
       </c>
       <c r="J28">
-        <v>0.9999395405983535</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="K28">
-        <v>0.9999395405983535</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="L28">
-        <v>0.9999395405983535</v>
+        <v>1.000561146984666</v>
       </c>
       <c r="M28">
-        <v>1.00009068813168</v>
+        <v>0.9991582934658279</v>
       </c>
       <c r="N28">
-        <v>1.00009068813168</v>
+        <v>0.9991582934658279</v>
       </c>
       <c r="O28">
-        <v>1.000104794880828</v>
+        <v>0.9990273599485514</v>
       </c>
       <c r="P28">
-        <v>1.000040305620571</v>
+        <v>0.9996259113054405</v>
       </c>
       <c r="Q28">
-        <v>1.000040305620571</v>
+        <v>0.9996259113054405</v>
       </c>
       <c r="R28">
-        <v>1.000015114365017</v>
+        <v>0.9998597202252471</v>
       </c>
       <c r="S28">
-        <v>1.000015114365017</v>
+        <v>0.9998597202252471</v>
       </c>
       <c r="T28">
-        <v>1.000005374199985</v>
+        <v>0.9999501230512525</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="D29">
+        <v>0.999760285765084</v>
+      </c>
+      <c r="E29">
+        <v>0.999760285765084</v>
+      </c>
+      <c r="F29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="G29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="H29">
+        <v>0.9998681530605864</v>
+      </c>
+      <c r="I29">
+        <v>1.000159821500623</v>
+      </c>
+      <c r="J29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="K29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="L29">
+        <v>1.000059921129255</v>
+      </c>
+      <c r="M29">
+        <v>0.9999101034471697</v>
+      </c>
+      <c r="N29">
+        <v>0.9999101034471697</v>
+      </c>
+      <c r="O29">
+        <v>0.9998961199849753</v>
+      </c>
+      <c r="P29">
+        <v>0.9999600426745315</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999600426745315</v>
+      </c>
+      <c r="R29">
+        <v>0.9999850122882125</v>
+      </c>
+      <c r="S29">
+        <v>0.9999850122882125</v>
+      </c>
+      <c r="T29">
+        <v>0.9999946706190098</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="D30">
+        <v>1.000241835665007</v>
+      </c>
+      <c r="E30">
+        <v>1.000241835665007</v>
+      </c>
+      <c r="F30">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="G30">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="H30">
+        <v>1.000133008379125</v>
+      </c>
+      <c r="I30">
+        <v>0.9998387793607175</v>
+      </c>
+      <c r="J30">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="K30">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="L30">
+        <v>0.9999395405983535</v>
+      </c>
+      <c r="M30">
+        <v>1.00009068813168</v>
+      </c>
+      <c r="N30">
+        <v>1.00009068813168</v>
+      </c>
+      <c r="O30">
+        <v>1.000104794880828</v>
+      </c>
+      <c r="P30">
+        <v>1.000040305620571</v>
+      </c>
+      <c r="Q30">
+        <v>1.000040305620571</v>
+      </c>
+      <c r="R30">
+        <v>1.000015114365017</v>
+      </c>
+      <c r="S30">
+        <v>1.000015114365017</v>
+      </c>
+      <c r="T30">
+        <v>1.000005374199985</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9997370731149802</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.001051726665297</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.001051726665297</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9997370731149802</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9997370731149802</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.000578451925854</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9992988581761483</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9997370731149802</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9997370731149802</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9997370731149802</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.000394399890139</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.000394399890139</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.000455750568711</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000175290965086</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.000175290965086</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.00006573650256</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.00006573650256</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000023376018707</v>
       </c>
     </row>
